--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/44_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/44_225-80R17.xlsx
@@ -698,37 +698,37 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2322838788058234</v>
+        <v>0.198441013841881</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.004045205674609411</v>
       </c>
       <c r="G2">
-        <v>0.2565491549287454</v>
+        <v>0.2182424587483855</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.008135014270561555</v>
       </c>
       <c r="I2">
-        <v>0.02237471229987421</v>
+        <v>0.02714665993129684</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0001004214392840239</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03777298937769286</v>
+        <v>0.03971227565587906</v>
       </c>
       <c r="M2">
-        <v>0.01574234655326109</v>
+        <v>0.02173438173318116</v>
       </c>
       <c r="N2">
-        <v>0.03840349202796589</v>
+        <v>0.04022679127191991</v>
       </c>
       <c r="O2">
-        <v>0.1201366128835211</v>
+        <v>0.1069243174595208</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -737,61 +737,61 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.005206092100606968</v>
+        <v>0.01313637275078756</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.003464444756851507</v>
       </c>
       <c r="U2">
-        <v>0.07985503990305431</v>
+        <v>0.07405292773869342</v>
       </c>
       <c r="V2">
-        <v>0.01720180795267639</v>
+        <v>0.02292536115362107</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.007392690292621007</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.00838825625866833</v>
+        <v>0.01573314716786425</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.007267968339781421</v>
       </c>
       <c r="AB2">
-        <v>0.001532337420433319</v>
+        <v>0.01013844062213755</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01211244588483981</v>
+        <v>0.01877223624850935</v>
       </c>
       <c r="AE2">
-        <v>0.1025786316457903</v>
+        <v>0.09259629595310405</v>
       </c>
       <c r="AF2">
-        <v>0.02825362570385796</v>
+        <v>0.03194409060092473</v>
       </c>
       <c r="AG2">
-        <v>0.003583926915926361</v>
+        <v>0.01181262047321262</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.002458030933788058</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0180246493372624</v>
+        <v>0.02359683294158397</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -814,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2029300480133553</v>
+        <v>0.1818436306629555</v>
       </c>
       <c r="G3">
-        <v>0.1743099004836132</v>
+        <v>0.1571337313498879</v>
       </c>
       <c r="H3">
-        <v>0.0243839523784519</v>
+        <v>0.02769152360987404</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01612001231296669</v>
+        <v>0.02055665029256644</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -835,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2612027650757788</v>
+        <v>0.2321547958941967</v>
       </c>
       <c r="N3">
-        <v>0.008542583017184489</v>
+        <v>0.0140144927178688</v>
       </c>
       <c r="O3">
-        <v>0.005949087554763117</v>
+        <v>0.01177533543614157</v>
       </c>
       <c r="P3">
-        <v>0.04604159994469997</v>
+        <v>0.04639017951874923</v>
       </c>
       <c r="Q3">
-        <v>0.002151683372682401</v>
+        <v>0.008496754328454259</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -856,22 +856,22 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.001104469306191086</v>
       </c>
       <c r="U3">
-        <v>0.07479109547406096</v>
+        <v>0.07121175456806542</v>
       </c>
       <c r="V3">
-        <v>0.01645585810400555</v>
+        <v>0.02084661091113641</v>
       </c>
       <c r="W3">
-        <v>0.01608538213304919</v>
+        <v>0.02052675148585813</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.03467027635274147</v>
+        <v>0.03657247118158554</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -880,34 +880,34 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01794929670189378</v>
+        <v>0.02213600738771702</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.004137126466331657</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.04968913244502298</v>
+        <v>0.04953936527086527</v>
       </c>
       <c r="AF3">
-        <v>0.04068509596301505</v>
+        <v>0.04176551174162012</v>
       </c>
       <c r="AG3">
-        <v>0.00705459114029016</v>
+        <v>0.01272979880011342</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.006303053188487653</v>
       </c>
       <c r="AI3">
-        <v>0.0009876395324247742</v>
+        <v>0.007491748814109114</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.002187690548491283</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.003390546518733468</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -924,40 +924,40 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09920926753084587</v>
+        <v>0.08938778970935579</v>
       </c>
       <c r="F4">
-        <v>0.1256738871696395</v>
+        <v>0.1108668812906665</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02651577652828388</v>
+        <v>0.03038863642772606</v>
       </c>
       <c r="I4">
-        <v>0.04736548656558134</v>
+        <v>0.04731058117687412</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00577079410181307</v>
       </c>
       <c r="K4">
-        <v>0.0003595980011707987</v>
+        <v>0.009159880387815561</v>
       </c>
       <c r="L4">
-        <v>0.1306194795028028</v>
+        <v>0.1148807999525515</v>
       </c>
       <c r="M4">
-        <v>0.2212629084967883</v>
+        <v>0.1884483984738578</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.004621121548547328</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.004630639402352422</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.003242301738904801</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -969,55 +969,55 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1165363872464782</v>
+        <v>0.1034507460749499</v>
       </c>
       <c r="U4">
-        <v>0.08772343615357127</v>
+        <v>0.08006571263410714</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.007269472941294791</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01612827924609601</v>
+        <v>0.02195798416557627</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.002550084726079002</v>
       </c>
       <c r="Z4">
-        <v>0.002768183721166776</v>
+        <v>0.01111472553455613</v>
       </c>
       <c r="AA4">
-        <v>0.01002285616973044</v>
+        <v>0.0170027290668908</v>
       </c>
       <c r="AB4">
-        <v>0.006842668121921212</v>
+        <v>0.0144216396253273</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.001842611305346273</v>
       </c>
       <c r="AD4">
-        <v>0.03947350409632015</v>
+        <v>0.0409053270478151</v>
       </c>
       <c r="AE4">
-        <v>0.03352112663135218</v>
+        <v>0.03607428611688242</v>
       </c>
       <c r="AF4">
-        <v>0.03128763537187704</v>
+        <v>0.03426155032233501</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.005109238201729043</v>
       </c>
       <c r="AH4">
-        <v>0.004689519446374135</v>
+        <v>0.01267411110530805</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.002591956921337604</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1034,46 +1034,46 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02018260650069554</v>
+        <v>0.02559781919149423</v>
       </c>
       <c r="E5">
-        <v>0.07574603178797346</v>
+        <v>0.07059060524737459</v>
       </c>
       <c r="F5">
-        <v>0.07016063378674665</v>
+        <v>0.0660677988147827</v>
       </c>
       <c r="G5">
-        <v>0.02554441335181604</v>
+        <v>0.02993957147328983</v>
       </c>
       <c r="H5">
-        <v>0.1963247361980084</v>
+        <v>0.1682298674484778</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007925348773218885</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00552974469726302</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00140486655319237</v>
       </c>
       <c r="L5">
-        <v>0.04547375936846133</v>
+        <v>0.04607746788490362</v>
       </c>
       <c r="M5">
-        <v>0.2044081930082545</v>
+        <v>0.1747754905985076</v>
       </c>
       <c r="N5">
-        <v>0.04335573074610145</v>
+        <v>0.04436238267960241</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0005003235272289483</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.01024316162988733</v>
+        <v>0.01754929960735539</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.05338319683546135</v>
+        <v>0.05248217792455945</v>
       </c>
       <c r="U5">
-        <v>0.02863603625349264</v>
+        <v>0.03244302994550256</v>
       </c>
       <c r="V5">
-        <v>0.02956958454978924</v>
+        <v>0.03319897575969487</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00275447711611055</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0004478393619722703</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1103,31 +1103,31 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.007795058174530614</v>
+        <v>0.01556693450945085</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.00481281847096828</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0103159389425093</v>
+        <v>0.01760823143237504</v>
       </c>
       <c r="AE5">
-        <v>0.04135721623161707</v>
+        <v>0.04274407467366392</v>
       </c>
       <c r="AF5">
-        <v>0.0612322603389075</v>
+        <v>0.05883799981861448</v>
       </c>
       <c r="AG5">
-        <v>0.03419821812055224</v>
+        <v>0.03694703698708807</v>
       </c>
       <c r="AH5">
-        <v>0.04207322417519559</v>
+        <v>0.0433238660031793</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0002819515001290284</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1147,46 +1147,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02051331462385681</v>
+        <v>0.02488905671086378</v>
       </c>
       <c r="E6">
-        <v>0.006555557844093176</v>
+        <v>0.01283792850996231</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.02409479471203695</v>
+        <v>0.02798130687488803</v>
       </c>
       <c r="H6">
-        <v>0.3584431042379857</v>
+        <v>0.316657661208104</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006756873532457942</v>
+        <v>0.01301174448968005</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08110026839183615</v>
+        <v>0.07719983692295267</v>
       </c>
       <c r="M6">
-        <v>0.155100368069891</v>
+        <v>0.141091528272143</v>
       </c>
       <c r="N6">
-        <v>0.03115842138224091</v>
+        <v>0.034080042646624</v>
       </c>
       <c r="O6">
-        <v>0.01321286408151596</v>
+        <v>0.01858584719100423</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01760163875795359</v>
+        <v>0.02237511556020957</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.06897997570232654</v>
+        <v>0.06673517534885963</v>
       </c>
       <c r="U6">
-        <v>0.03601227134036555</v>
+        <v>0.03827085704726659</v>
       </c>
       <c r="V6">
-        <v>0.03117218279403674</v>
+        <v>0.03409192425055174</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1216,28 +1216,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.007203306873766927</v>
+        <v>0.01339719506846298</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.0002205999711916952</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01357861353158792</v>
+        <v>0.01890163529232842</v>
       </c>
       <c r="AE6">
-        <v>0.03801787359746096</v>
+        <v>0.04000249417933899</v>
       </c>
       <c r="AF6">
-        <v>0.04717991363016376</v>
+        <v>0.04791300019818386</v>
       </c>
       <c r="AG6">
-        <v>0.01649550232964162</v>
+        <v>0.0214200772889738</v>
       </c>
       <c r="AH6">
-        <v>0.02682315456678177</v>
+        <v>0.03033697296841052</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1263,43 +1263,43 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2347845305294789</v>
+        <v>0.199321918282989</v>
       </c>
       <c r="F7">
-        <v>0.02472891690729954</v>
+        <v>0.02913685155973766</v>
       </c>
       <c r="G7">
-        <v>0.1459439615589978</v>
+        <v>0.1273441315566241</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.006544300930505624</v>
       </c>
       <c r="I7">
-        <v>0.02678440589159957</v>
+        <v>0.03080218924774255</v>
       </c>
       <c r="J7">
-        <v>0.0051029360455349</v>
+        <v>0.01323606792975902</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.004058956941452894</v>
       </c>
       <c r="L7">
-        <v>0.08976962329008314</v>
+        <v>0.08183221525228253</v>
       </c>
       <c r="M7">
-        <v>0.06785287095909261</v>
+        <v>0.06407547029560899</v>
       </c>
       <c r="N7">
-        <v>0.01256375129670913</v>
+        <v>0.019280749713959</v>
       </c>
       <c r="O7">
-        <v>0.09626236309902</v>
+        <v>0.08709257149102653</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.004630107314844724</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1308,46 +1308,46 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.02780313217535163</v>
+        <v>0.03162755162479815</v>
       </c>
       <c r="U7">
-        <v>0.07547772328995365</v>
+        <v>0.07025305336661679</v>
       </c>
       <c r="V7">
-        <v>0.02227480674341056</v>
+        <v>0.02714855477116016</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.003773891376090263</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.006929250685800225</v>
+        <v>0.01471573073691566</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.01745657870412866</v>
+        <v>0.02324487209297227</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.004589627151405335</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.03055884567965112</v>
+        <v>0.03386020458042406</v>
       </c>
       <c r="AE7">
-        <v>0.09492004136163801</v>
+        <v>0.0860050351452885</v>
       </c>
       <c r="AF7">
-        <v>0.0175555884215751</v>
+        <v>0.02332508882738519</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.002381681357928265</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.0032306733606753</v>
+        <v>0.01171917845248279</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02706382066976079</v>
+        <v>0.002787893578716701</v>
       </c>
       <c r="E8">
-        <v>0.09880229579152736</v>
+        <v>0.1231138098839325</v>
       </c>
       <c r="F8">
-        <v>0.1008352631567549</v>
+        <v>0.126523676913088</v>
       </c>
       <c r="G8">
-        <v>0.02540167472248549</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.04449417016159009</v>
+        <v>0.03202356900343944</v>
       </c>
       <c r="I8">
-        <v>0.02917864288159662</v>
+        <v>0.006335054569103576</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1928148846906552</v>
+        <v>0.2807997780385699</v>
       </c>
       <c r="M8">
-        <v>0.02614036297847054</v>
+        <v>0.001238991226318029</v>
       </c>
       <c r="N8">
-        <v>0.02806379844018838</v>
+        <v>0.004465141963315269</v>
       </c>
       <c r="O8">
-        <v>0.1028115977950321</v>
+        <v>0.12983855468088</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>9.154486945860832E-06</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.048355385157444</v>
+        <v>0.03849992958454963</v>
       </c>
       <c r="U8">
-        <v>0.07229261269387841</v>
+        <v>0.07864949830954746</v>
       </c>
       <c r="V8">
-        <v>0.02369775943432582</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1442,22 +1442,22 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.01319542381595807</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.004535113376655757</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.08497027056402925</v>
+        <v>0.09991355218357642</v>
       </c>
       <c r="AE8">
-        <v>0.07060002788530309</v>
+        <v>0.07581055006496287</v>
       </c>
       <c r="AF8">
-        <v>0.006737741297398273</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1486,43 +1486,43 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001658321664799209</v>
+        <v>0.009318514671488571</v>
       </c>
       <c r="E9">
-        <v>0.1687635257590397</v>
+        <v>0.1490110643467362</v>
       </c>
       <c r="F9">
-        <v>0.113321308768025</v>
+        <v>0.1026638264309416</v>
       </c>
       <c r="G9">
-        <v>0.03344442297206153</v>
+        <v>0.0358902875849345</v>
       </c>
       <c r="H9">
-        <v>0.03801728941487373</v>
+        <v>0.03971300140275529</v>
       </c>
       <c r="I9">
-        <v>0.0362729552956366</v>
+        <v>0.03825481533414943</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.003083332105112551</v>
       </c>
       <c r="K9">
-        <v>0.000175725108045329</v>
+        <v>0.008079129612984397</v>
       </c>
       <c r="L9">
-        <v>0.1633766094287178</v>
+        <v>0.1445078408765353</v>
       </c>
       <c r="M9">
-        <v>0.03497598544199935</v>
+        <v>0.03717060597820177</v>
       </c>
       <c r="N9">
-        <v>0.005061109741107691</v>
+        <v>0.01216309479668915</v>
       </c>
       <c r="O9">
-        <v>0.1387371595355182</v>
+        <v>0.1239103520261255</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.004820475049578492</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.03439135037907639</v>
+        <v>0.03668187695858847</v>
       </c>
       <c r="U9">
-        <v>0.06232593849983798</v>
+        <v>0.06003395542836706</v>
       </c>
       <c r="V9">
-        <v>0.02060496905002126</v>
+        <v>0.02515707275461623</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1549,28 +1549,28 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.00299486181941642</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.01520264410140161</v>
+        <v>0.02064096836195304</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.00577953816923465</v>
       </c>
       <c r="AD9">
-        <v>0.06126407023980948</v>
+        <v>0.05914628059222644</v>
       </c>
       <c r="AE9">
-        <v>0.06859792810009263</v>
+        <v>0.06527706095308845</v>
       </c>
       <c r="AF9">
-        <v>0.003808686499936563</v>
+        <v>0.01111612443583154</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.004585920310445025</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1556117437711262</v>
+        <v>0.1573657228656474</v>
       </c>
       <c r="F10">
-        <v>0.1049168030087216</v>
+        <v>0.1057821027733479</v>
       </c>
       <c r="G10">
-        <v>0.01914212430950908</v>
+        <v>0.01850379900145572</v>
       </c>
       <c r="H10">
-        <v>0.02799828676706067</v>
+        <v>0.02751520946600475</v>
       </c>
       <c r="I10">
-        <v>0.04617370025447406</v>
+        <v>0.04600923688284865</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1623,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1702109924717512</v>
+        <v>0.1722208955373259</v>
       </c>
       <c r="M10">
-        <v>0.05613289217756407</v>
+        <v>0.05614301285459129</v>
       </c>
       <c r="N10">
-        <v>0.00393031795568307</v>
+        <v>0.003025330576943677</v>
       </c>
       <c r="O10">
-        <v>0.153790269186415</v>
+        <v>0.1555123179385979</v>
       </c>
       <c r="P10">
-        <v>0.000957107581722783</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1644,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.004003003529717283</v>
+        <v>0.00309929032481564</v>
       </c>
       <c r="T10">
-        <v>0.02853065501306513</v>
+        <v>0.02805691009604994</v>
       </c>
       <c r="U10">
-        <v>0.05220873937286945</v>
+        <v>0.05215006988203307</v>
       </c>
       <c r="V10">
-        <v>0.03759615443059013</v>
+        <v>0.03728132718516838</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.002175988863874157</v>
+        <v>0.001240248199337852</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1677,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.0587042953470612</v>
+        <v>0.05875949257041024</v>
       </c>
       <c r="AE10">
-        <v>0.06476225445899317</v>
+        <v>0.06492364734926986</v>
       </c>
       <c r="AF10">
-        <v>0.01315467149980175</v>
+        <v>0.01241138649615182</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1712,43 +1712,43 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1629597877145585</v>
+        <v>0.1805608595679991</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.12032370793091</v>
+        <v>0.130610774916193</v>
       </c>
       <c r="G11">
-        <v>0.02200581946633304</v>
+        <v>0.01542694759171467</v>
       </c>
       <c r="H11">
-        <v>0.06254568881314117</v>
+        <v>0.06292122745800829</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.008868598199338463</v>
+        <v>3.610214565772996E-05</v>
       </c>
       <c r="K11">
-        <v>0.0004087701495144756</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2200049222862873</v>
+        <v>0.2473917998254172</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1107780627245009</v>
+        <v>0.1194276223248728</v>
       </c>
       <c r="O11">
-        <v>0.02008770121071894</v>
+        <v>0.01317978580464898</v>
       </c>
       <c r="P11">
-        <v>0.008837782356415398</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1757,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0104462552738739</v>
+        <v>0.001884398349822075</v>
       </c>
       <c r="T11">
-        <v>0.03658151026942468</v>
+        <v>0.03250302478191167</v>
       </c>
       <c r="U11">
-        <v>0.06348282043684206</v>
+        <v>0.06401911929448281</v>
       </c>
       <c r="V11">
-        <v>0.004885895033735012</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1781,22 +1781,22 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.004157029046651032</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.0177407548225564</v>
+        <v>0.01043023257750334</v>
       </c>
       <c r="AD11">
-        <v>0.08018138573615158</v>
+        <v>0.08358223941473619</v>
       </c>
       <c r="AE11">
-        <v>0.04129566237126675</v>
+        <v>0.03802586594703228</v>
       </c>
       <c r="AF11">
-        <v>0.004407846157780624</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1954,103 +1954,103 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2322838788058234</v>
+        <v>0.198441013841881</v>
       </c>
       <c r="F2">
-        <v>0.2322838788058234</v>
+        <v>0.2024862195164904</v>
       </c>
       <c r="G2">
-        <v>0.4888330337345688</v>
+        <v>0.4207286782648759</v>
       </c>
       <c r="H2">
-        <v>0.4888330337345688</v>
+        <v>0.4288636925354375</v>
       </c>
       <c r="I2">
-        <v>0.511207746034443</v>
+        <v>0.4560103524667343</v>
       </c>
       <c r="J2">
-        <v>0.511207746034443</v>
+        <v>0.4561107739060183</v>
       </c>
       <c r="K2">
-        <v>0.511207746034443</v>
+        <v>0.4561107739060183</v>
       </c>
       <c r="L2">
-        <v>0.5489807354121359</v>
+        <v>0.4958230495618974</v>
       </c>
       <c r="M2">
-        <v>0.564723081965397</v>
+        <v>0.5175574312950786</v>
       </c>
       <c r="N2">
-        <v>0.6031265739933629</v>
+        <v>0.5577842225669984</v>
       </c>
       <c r="O2">
-        <v>0.7232631868768841</v>
+        <v>0.6647085400265192</v>
       </c>
       <c r="P2">
-        <v>0.7232631868768841</v>
+        <v>0.6647085400265192</v>
       </c>
       <c r="Q2">
-        <v>0.7232631868768841</v>
+        <v>0.6647085400265192</v>
       </c>
       <c r="R2">
-        <v>0.728469278977491</v>
+        <v>0.6778449127773069</v>
       </c>
       <c r="S2">
-        <v>0.728469278977491</v>
+        <v>0.6778449127773069</v>
       </c>
       <c r="T2">
-        <v>0.728469278977491</v>
+        <v>0.6813093575341583</v>
       </c>
       <c r="U2">
-        <v>0.8083243188805453</v>
+        <v>0.7553622852728518</v>
       </c>
       <c r="V2">
-        <v>0.8255261268332217</v>
+        <v>0.7782876464264729</v>
       </c>
       <c r="W2">
-        <v>0.8255261268332217</v>
+        <v>0.7856803367190939</v>
       </c>
       <c r="X2">
-        <v>0.8255261268332217</v>
+        <v>0.7856803367190939</v>
       </c>
       <c r="Y2">
-        <v>0.83391438309189</v>
+        <v>0.8014134838869581</v>
       </c>
       <c r="Z2">
-        <v>0.83391438309189</v>
+        <v>0.8014134838869581</v>
       </c>
       <c r="AA2">
-        <v>0.83391438309189</v>
+        <v>0.8086814522267395</v>
       </c>
       <c r="AB2">
-        <v>0.8354467205123234</v>
+        <v>0.818819892848877</v>
       </c>
       <c r="AC2">
-        <v>0.8354467205123234</v>
+        <v>0.818819892848877</v>
       </c>
       <c r="AD2">
-        <v>0.8475591663971632</v>
+        <v>0.8375921290973863</v>
       </c>
       <c r="AE2">
-        <v>0.9501377980429535</v>
+        <v>0.9301884250504904</v>
       </c>
       <c r="AF2">
-        <v>0.9783914237468114</v>
+        <v>0.9621325156514151</v>
       </c>
       <c r="AG2">
-        <v>0.9819753506627378</v>
+        <v>0.9739451361246277</v>
       </c>
       <c r="AH2">
-        <v>0.9819753506627378</v>
+        <v>0.9764031670584158</v>
       </c>
       <c r="AI2">
-        <v>0.9819753506627378</v>
+        <v>0.9764031670584158</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2070,100 +2070,100 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2029300480133553</v>
+        <v>0.1818436306629555</v>
       </c>
       <c r="G3">
-        <v>0.3772399484969685</v>
+        <v>0.3389773620128434</v>
       </c>
       <c r="H3">
-        <v>0.4016239008754204</v>
+        <v>0.3666688856227174</v>
       </c>
       <c r="I3">
-        <v>0.4016239008754204</v>
+        <v>0.3666688856227174</v>
       </c>
       <c r="J3">
-        <v>0.4177439131883871</v>
+        <v>0.3872255359152839</v>
       </c>
       <c r="K3">
-        <v>0.4177439131883871</v>
+        <v>0.3872255359152839</v>
       </c>
       <c r="L3">
-        <v>0.4177439131883871</v>
+        <v>0.3872255359152839</v>
       </c>
       <c r="M3">
-        <v>0.6789466782641659</v>
+        <v>0.6193803318094806</v>
       </c>
       <c r="N3">
-        <v>0.6874892612813504</v>
+        <v>0.6333948245273494</v>
       </c>
       <c r="O3">
-        <v>0.6934383488361134</v>
+        <v>0.6451701599634909</v>
       </c>
       <c r="P3">
-        <v>0.7394799487808135</v>
+        <v>0.6915603394822402</v>
       </c>
       <c r="Q3">
-        <v>0.7416316321534959</v>
+        <v>0.7000570938106945</v>
       </c>
       <c r="R3">
-        <v>0.7416316321534959</v>
+        <v>0.7000570938106945</v>
       </c>
       <c r="S3">
-        <v>0.7416316321534959</v>
+        <v>0.7000570938106945</v>
       </c>
       <c r="T3">
-        <v>0.7416316321534959</v>
+        <v>0.7011615631168856</v>
       </c>
       <c r="U3">
-        <v>0.8164227276275569</v>
+        <v>0.772373317684951</v>
       </c>
       <c r="V3">
-        <v>0.8328785857315624</v>
+        <v>0.7932199285960874</v>
       </c>
       <c r="W3">
-        <v>0.8489639678646116</v>
+        <v>0.8137466800819455</v>
       </c>
       <c r="X3">
-        <v>0.8489639678646116</v>
+        <v>0.8137466800819455</v>
       </c>
       <c r="Y3">
-        <v>0.883634244217353</v>
+        <v>0.8503191512635311</v>
       </c>
       <c r="Z3">
-        <v>0.883634244217353</v>
+        <v>0.8503191512635311</v>
       </c>
       <c r="AA3">
-        <v>0.883634244217353</v>
+        <v>0.8503191512635311</v>
       </c>
       <c r="AB3">
-        <v>0.9015835409192469</v>
+        <v>0.8724551586512481</v>
       </c>
       <c r="AC3">
-        <v>0.9015835409192469</v>
+        <v>0.8765922851175798</v>
       </c>
       <c r="AD3">
-        <v>0.9015835409192469</v>
+        <v>0.8765922851175798</v>
       </c>
       <c r="AE3">
-        <v>0.9512726733642698</v>
+        <v>0.926131650388445</v>
       </c>
       <c r="AF3">
-        <v>0.9919577693272849</v>
+        <v>0.9678971621300652</v>
       </c>
       <c r="AG3">
-        <v>0.999012360467575</v>
+        <v>0.9806269609301785</v>
       </c>
       <c r="AH3">
-        <v>0.999012360467575</v>
+        <v>0.9869300141186662</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>0.9944217629327753</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9966094534812666</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2180,97 +2180,97 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09920926753084587</v>
+        <v>0.08938778970935579</v>
       </c>
       <c r="F4">
-        <v>0.2248831547004854</v>
+        <v>0.2002546710000223</v>
       </c>
       <c r="G4">
-        <v>0.2248831547004854</v>
+        <v>0.2002546710000223</v>
       </c>
       <c r="H4">
-        <v>0.2513989312287693</v>
+        <v>0.2306433074277484</v>
       </c>
       <c r="I4">
-        <v>0.2987644177943506</v>
+        <v>0.2779538886046225</v>
       </c>
       <c r="J4">
-        <v>0.2987644177943506</v>
+        <v>0.2837246827064356</v>
       </c>
       <c r="K4">
-        <v>0.2991240157955214</v>
+        <v>0.2928845630942511</v>
       </c>
       <c r="L4">
-        <v>0.4297434952983242</v>
+        <v>0.4077653630468027</v>
       </c>
       <c r="M4">
-        <v>0.6510064037951125</v>
+        <v>0.5962137615206605</v>
       </c>
       <c r="N4">
-        <v>0.6510064037951125</v>
+        <v>0.6008348830692078</v>
       </c>
       <c r="O4">
-        <v>0.6510064037951125</v>
+        <v>0.6054655224715603</v>
       </c>
       <c r="P4">
-        <v>0.6510064037951125</v>
+        <v>0.6087078242104651</v>
       </c>
       <c r="Q4">
-        <v>0.6510064037951125</v>
+        <v>0.6087078242104651</v>
       </c>
       <c r="R4">
-        <v>0.6510064037951125</v>
+        <v>0.6087078242104651</v>
       </c>
       <c r="S4">
-        <v>0.6510064037951125</v>
+        <v>0.6087078242104651</v>
       </c>
       <c r="T4">
-        <v>0.7675427910415907</v>
+        <v>0.7121585702854151</v>
       </c>
       <c r="U4">
-        <v>0.855266227195162</v>
+        <v>0.7922242829195222</v>
       </c>
       <c r="V4">
-        <v>0.855266227195162</v>
+        <v>0.7994937558608169</v>
       </c>
       <c r="W4">
-        <v>0.855266227195162</v>
+        <v>0.7994937558608169</v>
       </c>
       <c r="X4">
-        <v>0.871394506441258</v>
+        <v>0.8214517400263932</v>
       </c>
       <c r="Y4">
-        <v>0.871394506441258</v>
+        <v>0.8240018247524722</v>
       </c>
       <c r="Z4">
-        <v>0.8741626901624249</v>
+        <v>0.8351165502870284</v>
       </c>
       <c r="AA4">
-        <v>0.8841855463321553</v>
+        <v>0.8521192793539192</v>
       </c>
       <c r="AB4">
-        <v>0.8910282144540765</v>
+        <v>0.8665409189792465</v>
       </c>
       <c r="AC4">
-        <v>0.8910282144540765</v>
+        <v>0.8683835302845927</v>
       </c>
       <c r="AD4">
-        <v>0.9305017185503967</v>
+        <v>0.9092888573324078</v>
       </c>
       <c r="AE4">
-        <v>0.9640228451817489</v>
+        <v>0.9453631434492903</v>
       </c>
       <c r="AF4">
-        <v>0.9953104805536259</v>
+        <v>0.9796246937716253</v>
       </c>
       <c r="AG4">
-        <v>0.9953104805536259</v>
+        <v>0.9847339319733543</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9974080430786624</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9974080430786624</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -2290,97 +2290,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02018260650069554</v>
+        <v>0.02559781919149423</v>
       </c>
       <c r="E5">
-        <v>0.095928638288669</v>
+        <v>0.09618842443886882</v>
       </c>
       <c r="F5">
-        <v>0.1660892720754157</v>
+        <v>0.1622562232536515</v>
       </c>
       <c r="G5">
-        <v>0.1916336854272317</v>
+        <v>0.1921957947269413</v>
       </c>
       <c r="H5">
-        <v>0.3879584216252401</v>
+        <v>0.3604256621754192</v>
       </c>
       <c r="I5">
-        <v>0.3879584216252401</v>
+        <v>0.368351010948638</v>
       </c>
       <c r="J5">
-        <v>0.3879584216252401</v>
+        <v>0.3738807556459011</v>
       </c>
       <c r="K5">
-        <v>0.3879584216252401</v>
+        <v>0.3752856221990934</v>
       </c>
       <c r="L5">
-        <v>0.4334321809937014</v>
+        <v>0.4213630900839971</v>
       </c>
       <c r="M5">
-        <v>0.6378403740019559</v>
+        <v>0.5961385806825047</v>
       </c>
       <c r="N5">
-        <v>0.6811961047480574</v>
+        <v>0.6405009633621072</v>
       </c>
       <c r="O5">
-        <v>0.6811961047480574</v>
+        <v>0.6410012868893361</v>
       </c>
       <c r="P5">
-        <v>0.6811961047480574</v>
+        <v>0.6410012868893361</v>
       </c>
       <c r="Q5">
-        <v>0.6914392663779447</v>
+        <v>0.6585505864966915</v>
       </c>
       <c r="R5">
-        <v>0.6914392663779447</v>
+        <v>0.6585505864966915</v>
       </c>
       <c r="S5">
-        <v>0.6914392663779447</v>
+        <v>0.6585505864966915</v>
       </c>
       <c r="T5">
-        <v>0.7448224632134061</v>
+        <v>0.711032764421251</v>
       </c>
       <c r="U5">
-        <v>0.7734584994668987</v>
+        <v>0.7434757943667535</v>
       </c>
       <c r="V5">
-        <v>0.8030280840166879</v>
+        <v>0.7766747701264484</v>
       </c>
       <c r="W5">
-        <v>0.8030280840166879</v>
+        <v>0.7794292472425589</v>
       </c>
       <c r="X5">
-        <v>0.8030280840166879</v>
+        <v>0.7798770866045311</v>
       </c>
       <c r="Y5">
-        <v>0.8030280840166879</v>
+        <v>0.7798770866045311</v>
       </c>
       <c r="Z5">
-        <v>0.8030280840166879</v>
+        <v>0.7798770866045311</v>
       </c>
       <c r="AA5">
-        <v>0.8108231421912185</v>
+        <v>0.795444021113982</v>
       </c>
       <c r="AB5">
-        <v>0.8108231421912185</v>
+        <v>0.8002568395849503</v>
       </c>
       <c r="AC5">
-        <v>0.8108231421912185</v>
+        <v>0.8002568395849503</v>
       </c>
       <c r="AD5">
-        <v>0.8211390811337278</v>
+        <v>0.8178650710173253</v>
       </c>
       <c r="AE5">
-        <v>0.8624962973653448</v>
+        <v>0.8606091456909892</v>
       </c>
       <c r="AF5">
-        <v>0.9237285577042523</v>
+        <v>0.9194471455096037</v>
       </c>
       <c r="AG5">
-        <v>0.9579267758248046</v>
+        <v>0.9563941824966918</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9997180484998711</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2403,106 +2403,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02051331462385681</v>
+        <v>0.02488905671086378</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0.03772698522082608</v>
       </c>
       <c r="F6">
-        <v>0.02706887246794999</v>
+        <v>0.03772698522082608</v>
       </c>
       <c r="G6">
-        <v>0.05116366717998694</v>
+        <v>0.0657082920957141</v>
       </c>
       <c r="H6">
-        <v>0.4096067714179726</v>
+        <v>0.3823659533038181</v>
       </c>
       <c r="I6">
-        <v>0.4096067714179726</v>
+        <v>0.3823659533038181</v>
       </c>
       <c r="J6">
-        <v>0.4163636449504306</v>
+        <v>0.3953776977934982</v>
       </c>
       <c r="K6">
-        <v>0.4163636449504306</v>
+        <v>0.3953776977934982</v>
       </c>
       <c r="L6">
-        <v>0.4974639133422668</v>
+        <v>0.4725775347164509</v>
       </c>
       <c r="M6">
-        <v>0.6525642814121577</v>
+        <v>0.6136690629885938</v>
       </c>
       <c r="N6">
-        <v>0.6837227027943986</v>
+        <v>0.6477491056352178</v>
       </c>
       <c r="O6">
-        <v>0.6969355668759146</v>
+        <v>0.666334952826222</v>
       </c>
       <c r="P6">
-        <v>0.6969355668759146</v>
+        <v>0.666334952826222</v>
       </c>
       <c r="Q6">
-        <v>0.7145372056338682</v>
+        <v>0.6887100683864316</v>
       </c>
       <c r="R6">
-        <v>0.7145372056338682</v>
+        <v>0.6887100683864316</v>
       </c>
       <c r="S6">
-        <v>0.7145372056338682</v>
+        <v>0.6887100683864316</v>
       </c>
       <c r="T6">
-        <v>0.7835171813361947</v>
+        <v>0.7554452437352912</v>
       </c>
       <c r="U6">
-        <v>0.8195294526765603</v>
+        <v>0.7937161007825578</v>
       </c>
       <c r="V6">
-        <v>0.8507016354705971</v>
+        <v>0.8278080250331096</v>
       </c>
       <c r="W6">
-        <v>0.8507016354705971</v>
+        <v>0.8278080250331096</v>
       </c>
       <c r="X6">
-        <v>0.8507016354705971</v>
+        <v>0.8278080250331096</v>
       </c>
       <c r="Y6">
-        <v>0.8507016354705971</v>
+        <v>0.8278080250331096</v>
       </c>
       <c r="Z6">
-        <v>0.8507016354705971</v>
+        <v>0.8278080250331096</v>
       </c>
       <c r="AA6">
-        <v>0.857904942344364</v>
+        <v>0.8412052201015725</v>
       </c>
       <c r="AB6">
-        <v>0.857904942344364</v>
+        <v>0.8414258200727642</v>
       </c>
       <c r="AC6">
-        <v>0.857904942344364</v>
+        <v>0.8414258200727642</v>
       </c>
       <c r="AD6">
-        <v>0.8714835558759519</v>
+        <v>0.8603274553650927</v>
       </c>
       <c r="AE6">
-        <v>0.9095014294734129</v>
+        <v>0.9003299495444317</v>
       </c>
       <c r="AF6">
-        <v>0.9566813431035767</v>
+        <v>0.9482429497426156</v>
       </c>
       <c r="AG6">
-        <v>0.9731768454332183</v>
+        <v>0.9696630270315894</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2519,97 +2519,97 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2347845305294789</v>
+        <v>0.199321918282989</v>
       </c>
       <c r="F7">
-        <v>0.2595134474367785</v>
+        <v>0.2284587698427267</v>
       </c>
       <c r="G7">
-        <v>0.4054574089957763</v>
+        <v>0.3558029013993508</v>
       </c>
       <c r="H7">
-        <v>0.4054574089957763</v>
+        <v>0.3623472023298564</v>
       </c>
       <c r="I7">
-        <v>0.4322418148873759</v>
+        <v>0.3931493915775989</v>
       </c>
       <c r="J7">
-        <v>0.4373447509329108</v>
+        <v>0.4063854595073579</v>
       </c>
       <c r="K7">
-        <v>0.4373447509329108</v>
+        <v>0.4104444164488109</v>
       </c>
       <c r="L7">
-        <v>0.527114374222994</v>
+        <v>0.4922766317010934</v>
       </c>
       <c r="M7">
-        <v>0.5949672451820867</v>
+        <v>0.5563521019967024</v>
       </c>
       <c r="N7">
-        <v>0.6075309964787958</v>
+        <v>0.5756328517106614</v>
       </c>
       <c r="O7">
-        <v>0.7037933595778159</v>
+        <v>0.6627254232016879</v>
       </c>
       <c r="P7">
-        <v>0.7037933595778159</v>
+        <v>0.6627254232016879</v>
       </c>
       <c r="Q7">
-        <v>0.7037933595778159</v>
+        <v>0.6673555305165326</v>
       </c>
       <c r="R7">
-        <v>0.7037933595778159</v>
+        <v>0.6673555305165326</v>
       </c>
       <c r="S7">
-        <v>0.7037933595778159</v>
+        <v>0.6673555305165326</v>
       </c>
       <c r="T7">
-        <v>0.7315964917531674</v>
+        <v>0.6989830821413308</v>
       </c>
       <c r="U7">
-        <v>0.807074215043121</v>
+        <v>0.7692361355079476</v>
       </c>
       <c r="V7">
-        <v>0.8293490217865316</v>
+        <v>0.7963846902791077</v>
       </c>
       <c r="W7">
-        <v>0.8293490217865316</v>
+        <v>0.800158581655198</v>
       </c>
       <c r="X7">
-        <v>0.8293490217865316</v>
+        <v>0.800158581655198</v>
       </c>
       <c r="Y7">
-        <v>0.8362782724723318</v>
+        <v>0.8148743123921137</v>
       </c>
       <c r="Z7">
-        <v>0.8362782724723318</v>
+        <v>0.8148743123921137</v>
       </c>
       <c r="AA7">
-        <v>0.8537348511764604</v>
+        <v>0.8381191844850859</v>
       </c>
       <c r="AB7">
-        <v>0.8537348511764604</v>
+        <v>0.8427088116364913</v>
       </c>
       <c r="AC7">
-        <v>0.8537348511764604</v>
+        <v>0.8427088116364913</v>
       </c>
       <c r="AD7">
-        <v>0.8842936968561116</v>
+        <v>0.8765690162169153</v>
       </c>
       <c r="AE7">
-        <v>0.9792137382177496</v>
+        <v>0.9625740513622038</v>
       </c>
       <c r="AF7">
-        <v>0.9967693266393247</v>
+        <v>0.9858991401895889</v>
       </c>
       <c r="AG7">
-        <v>0.9967693266393247</v>
+        <v>0.9882808215475172</v>
       </c>
       <c r="AH7">
-        <v>0.9967693266393247</v>
+        <v>0.9882808215475172</v>
       </c>
       <c r="AI7">
-        <v>0.9967693266393247</v>
+        <v>0.9882808215475172</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2629,106 +2629,106 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02706382066976079</v>
+        <v>0.002787893578716701</v>
       </c>
       <c r="E8">
-        <v>0.1258661164612881</v>
+        <v>0.1259017034626492</v>
       </c>
       <c r="F8">
-        <v>0.226701379618043</v>
+        <v>0.2524253803757373</v>
       </c>
       <c r="G8">
-        <v>0.2521030543405285</v>
+        <v>0.2524253803757373</v>
       </c>
       <c r="H8">
-        <v>0.2965972245021186</v>
+        <v>0.2844489493791767</v>
       </c>
       <c r="I8">
-        <v>0.3257758673837152</v>
+        <v>0.2907840039482803</v>
       </c>
       <c r="J8">
-        <v>0.3257758673837152</v>
+        <v>0.2907840039482803</v>
       </c>
       <c r="K8">
-        <v>0.3257758673837152</v>
+        <v>0.2907840039482803</v>
       </c>
       <c r="L8">
-        <v>0.5185907520743703</v>
+        <v>0.5715837819868501</v>
       </c>
       <c r="M8">
-        <v>0.5447311150528409</v>
+        <v>0.5728227732131681</v>
       </c>
       <c r="N8">
-        <v>0.5727949134930292</v>
+        <v>0.5772879151764834</v>
       </c>
       <c r="O8">
-        <v>0.6756065112880614</v>
+        <v>0.7071264698573634</v>
       </c>
       <c r="P8">
-        <v>0.6756065112880614</v>
+        <v>0.7071264698573634</v>
       </c>
       <c r="Q8">
-        <v>0.6756065112880614</v>
+        <v>0.7071264698573634</v>
       </c>
       <c r="R8">
-        <v>0.6756065112880614</v>
+        <v>0.7071264698573634</v>
       </c>
       <c r="S8">
-        <v>0.6756156657750072</v>
+        <v>0.7071264698573634</v>
       </c>
       <c r="T8">
-        <v>0.7239710509324512</v>
+        <v>0.745626399441913</v>
       </c>
       <c r="U8">
-        <v>0.7962636636263296</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="V8">
-        <v>0.8199614230606554</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="W8">
-        <v>0.8199614230606554</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="X8">
-        <v>0.8199614230606554</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="Y8">
-        <v>0.8199614230606554</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="Z8">
-        <v>0.8199614230606554</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="AA8">
-        <v>0.8331568468766135</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="AB8">
-        <v>0.8331568468766135</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="AC8">
-        <v>0.8376919602532693</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="AD8">
-        <v>0.9226622308172986</v>
+        <v>0.9241894499350369</v>
       </c>
       <c r="AE8">
-        <v>0.9932622587026017</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2742,97 +2742,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001658321664799209</v>
+        <v>0.009318514671488571</v>
       </c>
       <c r="E9">
-        <v>0.1704218474238389</v>
+        <v>0.1583295790182247</v>
       </c>
       <c r="F9">
-        <v>0.2837431561918639</v>
+        <v>0.2609934054491663</v>
       </c>
       <c r="G9">
-        <v>0.3171875791639254</v>
+        <v>0.2968836930341008</v>
       </c>
       <c r="H9">
-        <v>0.3552048685787992</v>
+        <v>0.3365966944368561</v>
       </c>
       <c r="I9">
-        <v>0.3914778238744358</v>
+        <v>0.3748515097710056</v>
       </c>
       <c r="J9">
-        <v>0.3914778238744358</v>
+        <v>0.3779348418761181</v>
       </c>
       <c r="K9">
-        <v>0.3916535489824811</v>
+        <v>0.3860139714891025</v>
       </c>
       <c r="L9">
-        <v>0.555030158411199</v>
+        <v>0.5305218123656378</v>
       </c>
       <c r="M9">
-        <v>0.5900061438531983</v>
+        <v>0.5676924183438395</v>
       </c>
       <c r="N9">
-        <v>0.595067253594306</v>
+        <v>0.5798555131405287</v>
       </c>
       <c r="O9">
-        <v>0.7338044131298241</v>
+        <v>0.7037658651666543</v>
       </c>
       <c r="P9">
-        <v>0.7338044131298241</v>
+        <v>0.7085863402162328</v>
       </c>
       <c r="Q9">
-        <v>0.7338044131298241</v>
+        <v>0.7085863402162328</v>
       </c>
       <c r="R9">
-        <v>0.7338044131298241</v>
+        <v>0.7085863402162328</v>
       </c>
       <c r="S9">
-        <v>0.7338044131298241</v>
+        <v>0.7085863402162328</v>
       </c>
       <c r="T9">
-        <v>0.7681957635089005</v>
+        <v>0.7452682171748213</v>
       </c>
       <c r="U9">
-        <v>0.8305217020087385</v>
+        <v>0.8053021726031884</v>
       </c>
       <c r="V9">
-        <v>0.8511266710587598</v>
+        <v>0.8304592453578046</v>
       </c>
       <c r="W9">
-        <v>0.8511266710587598</v>
+        <v>0.8304592453578046</v>
       </c>
       <c r="X9">
-        <v>0.8511266710587598</v>
+        <v>0.8304592453578046</v>
       </c>
       <c r="Y9">
-        <v>0.8511266710587598</v>
+        <v>0.833454107177221</v>
       </c>
       <c r="Z9">
-        <v>0.8511266710587598</v>
+        <v>0.833454107177221</v>
       </c>
       <c r="AA9">
-        <v>0.8663293151601614</v>
+        <v>0.8540950755391741</v>
       </c>
       <c r="AB9">
-        <v>0.8663293151601614</v>
+        <v>0.8540950755391741</v>
       </c>
       <c r="AC9">
-        <v>0.8663293151601614</v>
+        <v>0.8598746137084087</v>
       </c>
       <c r="AD9">
-        <v>0.9275933853999709</v>
+        <v>0.9190208943006352</v>
       </c>
       <c r="AE9">
-        <v>0.9961913135000635</v>
+        <v>0.9842979552537237</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9954140796895552</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9954140796895552</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9954140796895552</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2858,103 +2858,103 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1556117437711262</v>
+        <v>0.1573657228656474</v>
       </c>
       <c r="F10">
-        <v>0.2605285467798478</v>
+        <v>0.2631478256389952</v>
       </c>
       <c r="G10">
-        <v>0.2796706710893568</v>
+        <v>0.281651624640451</v>
       </c>
       <c r="H10">
-        <v>0.3076689578564175</v>
+        <v>0.3091668341064557</v>
       </c>
       <c r="I10">
-        <v>0.3538426581108916</v>
+        <v>0.3551760709893044</v>
       </c>
       <c r="J10">
-        <v>0.3538426581108916</v>
+        <v>0.3551760709893044</v>
       </c>
       <c r="K10">
-        <v>0.3538426581108916</v>
+        <v>0.3551760709893044</v>
       </c>
       <c r="L10">
-        <v>0.5240536505826427</v>
+        <v>0.5273969665266303</v>
       </c>
       <c r="M10">
-        <v>0.5801865427602069</v>
+        <v>0.5835399793812216</v>
       </c>
       <c r="N10">
-        <v>0.58411686071589</v>
+        <v>0.5865653099581652</v>
       </c>
       <c r="O10">
-        <v>0.737907129902305</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="P10">
-        <v>0.7388642374840277</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="Q10">
-        <v>0.7388642374840277</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="R10">
-        <v>0.7388642374840277</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="S10">
-        <v>0.742867241013745</v>
+        <v>0.7451769182215787</v>
       </c>
       <c r="T10">
-        <v>0.7713978960268102</v>
+        <v>0.7732338283176287</v>
       </c>
       <c r="U10">
-        <v>0.8236066353996796</v>
+        <v>0.8253838981996617</v>
       </c>
       <c r="V10">
-        <v>0.8612027898302698</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="W10">
-        <v>0.8612027898302698</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="X10">
-        <v>0.8612027898302698</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="Y10">
-        <v>0.8612027898302698</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="Z10">
-        <v>0.8612027898302698</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="AA10">
-        <v>0.8633787786941439</v>
+        <v>0.863905473584168</v>
       </c>
       <c r="AB10">
-        <v>0.8633787786941439</v>
+        <v>0.863905473584168</v>
       </c>
       <c r="AC10">
-        <v>0.8633787786941439</v>
+        <v>0.863905473584168</v>
       </c>
       <c r="AD10">
-        <v>0.9220830740412052</v>
+        <v>0.9226649661545783</v>
       </c>
       <c r="AE10">
-        <v>0.9868453285001983</v>
+        <v>0.9875886135038481</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -2968,88 +2968,88 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1629597877145585</v>
+        <v>0.1805608595679991</v>
       </c>
       <c r="E11">
-        <v>0.1629597877145585</v>
+        <v>0.1805608595679991</v>
       </c>
       <c r="F11">
-        <v>0.2832834956454685</v>
+        <v>0.3111716344841921</v>
       </c>
       <c r="G11">
-        <v>0.3052893151118016</v>
+        <v>0.3265985820759068</v>
       </c>
       <c r="H11">
-        <v>0.3678350039249427</v>
+        <v>0.3895198095339151</v>
       </c>
       <c r="I11">
-        <v>0.3678350039249427</v>
+        <v>0.3895198095339151</v>
       </c>
       <c r="J11">
-        <v>0.3767036021242812</v>
+        <v>0.3895559116795728</v>
       </c>
       <c r="K11">
-        <v>0.3771123722737956</v>
+        <v>0.3895559116795728</v>
       </c>
       <c r="L11">
-        <v>0.5971172945600829</v>
+        <v>0.63694771150499</v>
       </c>
       <c r="M11">
-        <v>0.5971172945600829</v>
+        <v>0.63694771150499</v>
       </c>
       <c r="N11">
-        <v>0.7078953572845837</v>
+        <v>0.7563753338298628</v>
       </c>
       <c r="O11">
-        <v>0.7279830584953026</v>
+        <v>0.7695551196345117</v>
       </c>
       <c r="P11">
-        <v>0.7368208408517181</v>
+        <v>0.7695551196345117</v>
       </c>
       <c r="Q11">
-        <v>0.7368208408517181</v>
+        <v>0.7695551196345117</v>
       </c>
       <c r="R11">
-        <v>0.7368208408517181</v>
+        <v>0.7695551196345117</v>
       </c>
       <c r="S11">
-        <v>0.7472670961255919</v>
+        <v>0.7714395179843339</v>
       </c>
       <c r="T11">
-        <v>0.7838486063950166</v>
+        <v>0.8039425427662455</v>
       </c>
       <c r="U11">
-        <v>0.8473314268318587</v>
+        <v>0.8679616620607283</v>
       </c>
       <c r="V11">
-        <v>0.8522173218655937</v>
+        <v>0.8679616620607283</v>
       </c>
       <c r="W11">
-        <v>0.8522173218655937</v>
+        <v>0.8679616620607283</v>
       </c>
       <c r="X11">
-        <v>0.8522173218655937</v>
+        <v>0.8679616620607283</v>
       </c>
       <c r="Y11">
-        <v>0.8522173218655937</v>
+        <v>0.8679616620607283</v>
       </c>
       <c r="Z11">
-        <v>0.8522173218655937</v>
+        <v>0.8679616620607283</v>
       </c>
       <c r="AA11">
-        <v>0.8563743509122448</v>
+        <v>0.8679616620607283</v>
       </c>
       <c r="AB11">
-        <v>0.8563743509122448</v>
+        <v>0.8679616620607283</v>
       </c>
       <c r="AC11">
-        <v>0.8741151057348012</v>
+        <v>0.8783918946382316</v>
       </c>
       <c r="AD11">
-        <v>0.9542964914709529</v>
+        <v>0.9619741340529678</v>
       </c>
       <c r="AE11">
-        <v>0.9955921538422197</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -3135,16 +3135,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.511207746034443</v>
+        <v>0.5175574312950786</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6789466782641659</v>
+        <v>0.6193803318094806</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6510064037951125</v>
+        <v>0.5962137615206605</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6378403740019559</v>
+        <v>0.5961385806825047</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -3302,10 +3302,10 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0.03772698522082608</v>
       </c>
       <c r="F6">
-        <v>0.6525642814121577</v>
+        <v>0.6136690629885938</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -3340,16 +3340,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.527114374222994</v>
+        <v>0.5563521019967024</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>44</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5185907520743703</v>
+        <v>0.5715837819868501</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.555030158411199</v>
+        <v>0.5305218123656378</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5240536505826427</v>
+        <v>0.5273969665266303</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5971172945600829</v>
+        <v>0.63694771150499</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3599,16 +3599,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7232631868768841</v>
+        <v>0.7553622852728518</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -3640,16 +3640,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7394799487808135</v>
+        <v>0.7000570938106945</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7675427910415907</v>
+        <v>0.7121585702854151</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7448224632134061</v>
+        <v>0.711032764421251</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -3763,16 +3763,16 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0.03772698522082608</v>
       </c>
       <c r="F6">
-        <v>0.7145372056338682</v>
+        <v>0.7554452437352912</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -3804,16 +3804,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7037933595778159</v>
+        <v>0.7692361355079476</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>44</v>
@@ -3845,16 +3845,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7239710509324512</v>
+        <v>0.7071264698573634</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>44</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7338044131298241</v>
+        <v>0.7037658651666543</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.737907129902305</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7078953572845837</v>
+        <v>0.7563753338298628</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -4063,16 +4063,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8083243188805453</v>
+        <v>0.8014134838869581</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -4104,16 +4104,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8164227276275569</v>
+        <v>0.8137466800819455</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -4145,16 +4145,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.855266227195162</v>
+        <v>0.8214517400263932</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -4186,16 +4186,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8030280840166879</v>
+        <v>0.8002568395849503</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -4227,16 +4227,16 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0.03772698522082608</v>
       </c>
       <c r="F6">
-        <v>0.8195294526765603</v>
+        <v>0.8278080250331096</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -4268,16 +4268,16 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.800158581655198</v>
+      </c>
+      <c r="G7">
         <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.807074215043121</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
       </c>
       <c r="H7">
         <v>44</v>
@@ -4309,16 +4309,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8199614230606554</v>
+        <v>0.8242758977514605</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>44</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8305217020087385</v>
+        <v>0.8053021726031884</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8236066353996796</v>
+        <v>0.8253838981996617</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -4432,16 +4432,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8473314268318587</v>
+        <v>0.8039425427662455</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>44</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9501377980429535</v>
+        <v>0.9301884250504904</v>
       </c>
       <c r="G2">
         <v>28</v>
@@ -4568,16 +4568,16 @@
         <v>3</v>
       </c>
       <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.926131650388445</v>
+      </c>
+      <c r="G3">
         <v>27</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9015835409192469</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9305017185503967</v>
+        <v>0.9092888573324078</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9237285577042523</v>
+        <v>0.9194471455096037</v>
       </c>
       <c r="G5">
         <v>29</v>
@@ -4694,10 +4694,10 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>0.02706887246794999</v>
+        <v>0.03772698522082608</v>
       </c>
       <c r="F6">
-        <v>0.9095014294734129</v>
+        <v>0.9003299495444317</v>
       </c>
       <c r="G6">
         <v>26</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9792137382177496</v>
+        <v>0.9625740513622038</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9226622308172986</v>
+        <v>0.9241894499350369</v>
       </c>
       <c r="G8">
         <v>27</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9275933853999709</v>
+        <v>0.9190208943006352</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9220830740412052</v>
+        <v>0.9226649661545783</v>
       </c>
       <c r="G10">
         <v>27</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9542964914709529</v>
+        <v>0.9619741340529678</v>
       </c>
       <c r="G11">
         <v>28</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/44_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/44_225-80R17.xlsx
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1573657228656474</v>
+        <v>0.1573657228656473</v>
       </c>
       <c r="F10">
-        <v>0.1057821027733479</v>
+        <v>0.1057821027733478</v>
       </c>
       <c r="G10">
         <v>0.01850379900145572</v>
@@ -1614,7 +1614,7 @@
         <v>0.02751520946600475</v>
       </c>
       <c r="I10">
-        <v>0.04600923688284865</v>
+        <v>0.04600923688284864</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0.1722208955373259</v>
       </c>
       <c r="M10">
-        <v>0.05614301285459129</v>
+        <v>0.05614301285459127</v>
       </c>
       <c r="N10">
         <v>0.003025330576943677</v>
@@ -1644,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.00309929032481564</v>
+        <v>0.003099290324815642</v>
       </c>
       <c r="T10">
-        <v>0.02805691009604994</v>
+        <v>0.02805691009604993</v>
       </c>
       <c r="U10">
-        <v>0.05215006988203307</v>
+        <v>0.05215006988203305</v>
       </c>
       <c r="V10">
-        <v>0.03728132718516838</v>
+        <v>0.03728132718516836</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.05875949257041024</v>
+        <v>0.05875949257041023</v>
       </c>
       <c r="AE10">
-        <v>0.06492364734926986</v>
+        <v>0.06492364734926985</v>
       </c>
       <c r="AF10">
         <v>0.01241138649615182</v>
@@ -2858,103 +2858,103 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1573657228656474</v>
+        <v>0.1573657228656473</v>
       </c>
       <c r="F10">
         <v>0.2631478256389952</v>
       </c>
       <c r="G10">
-        <v>0.281651624640451</v>
+        <v>0.2816516246404509</v>
       </c>
       <c r="H10">
-        <v>0.3091668341064557</v>
+        <v>0.3091668341064556</v>
       </c>
       <c r="I10">
-        <v>0.3551760709893044</v>
+        <v>0.3551760709893043</v>
       </c>
       <c r="J10">
-        <v>0.3551760709893044</v>
+        <v>0.3551760709893043</v>
       </c>
       <c r="K10">
-        <v>0.3551760709893044</v>
+        <v>0.3551760709893043</v>
       </c>
       <c r="L10">
-        <v>0.5273969665266303</v>
+        <v>0.5273969665266302</v>
       </c>
       <c r="M10">
-        <v>0.5835399793812216</v>
+        <v>0.5835399793812214</v>
       </c>
       <c r="N10">
-        <v>0.5865653099581652</v>
+        <v>0.586565309958165</v>
       </c>
       <c r="O10">
-        <v>0.7420776278967631</v>
+        <v>0.7420776278967629</v>
       </c>
       <c r="P10">
-        <v>0.7420776278967631</v>
+        <v>0.7420776278967629</v>
       </c>
       <c r="Q10">
-        <v>0.7420776278967631</v>
+        <v>0.7420776278967629</v>
       </c>
       <c r="R10">
-        <v>0.7420776278967631</v>
+        <v>0.7420776278967629</v>
       </c>
       <c r="S10">
-        <v>0.7451769182215787</v>
+        <v>0.7451769182215785</v>
       </c>
       <c r="T10">
-        <v>0.7732338283176287</v>
+        <v>0.7732338283176284</v>
       </c>
       <c r="U10">
-        <v>0.8253838981996617</v>
+        <v>0.8253838981996615</v>
       </c>
       <c r="V10">
-        <v>0.8626652253848301</v>
+        <v>0.8626652253848299</v>
       </c>
       <c r="W10">
-        <v>0.8626652253848301</v>
+        <v>0.8626652253848299</v>
       </c>
       <c r="X10">
-        <v>0.8626652253848301</v>
+        <v>0.8626652253848299</v>
       </c>
       <c r="Y10">
-        <v>0.8626652253848301</v>
+        <v>0.8626652253848299</v>
       </c>
       <c r="Z10">
-        <v>0.8626652253848301</v>
+        <v>0.8626652253848299</v>
       </c>
       <c r="AA10">
-        <v>0.863905473584168</v>
+        <v>0.8639054735841678</v>
       </c>
       <c r="AB10">
-        <v>0.863905473584168</v>
+        <v>0.8639054735841678</v>
       </c>
       <c r="AC10">
-        <v>0.863905473584168</v>
+        <v>0.8639054735841678</v>
       </c>
       <c r="AD10">
-        <v>0.9226649661545783</v>
+        <v>0.922664966154578</v>
       </c>
       <c r="AE10">
-        <v>0.9875886135038481</v>
+        <v>0.9875886135038479</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5273969665266303</v>
+        <v>0.5273969665266302</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7420776278967631</v>
+        <v>0.7420776278967629</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8253838981996617</v>
+        <v>0.8253838981996615</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9226649661545783</v>
+        <v>0.922664966154578</v>
       </c>
       <c r="G10">
         <v>27</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/44_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/44_225-80R17.xlsx
@@ -1486,43 +1486,43 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009318514671488571</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1490110643467362</v>
+        <v>0.1500041412562959</v>
       </c>
       <c r="F9">
-        <v>0.1026638264309416</v>
+        <v>0.1033480244528977</v>
       </c>
       <c r="G9">
-        <v>0.0358902875849345</v>
+        <v>0.03612947664136002</v>
       </c>
       <c r="H9">
-        <v>0.03971300140275529</v>
+        <v>0.03997766674740796</v>
       </c>
       <c r="I9">
-        <v>0.03825481533414943</v>
+        <v>0.03850976266946552</v>
       </c>
       <c r="J9">
-        <v>0.003083332105112551</v>
+        <v>0.003103880820280215</v>
       </c>
       <c r="K9">
-        <v>0.008079129612984397</v>
+        <v>0.008132972574936037</v>
       </c>
       <c r="L9">
-        <v>0.1445078408765353</v>
+        <v>0.1454709062747589</v>
       </c>
       <c r="M9">
-        <v>0.03717060597820177</v>
+        <v>0.03741832765358959</v>
       </c>
       <c r="N9">
-        <v>0.01216309479668915</v>
+        <v>0.01224415514374681</v>
       </c>
       <c r="O9">
-        <v>0.1239103520261255</v>
+        <v>0.1247361464729475</v>
       </c>
       <c r="P9">
-        <v>0.004820475049578492</v>
+        <v>0.004852600868462021</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.03668187695858847</v>
+        <v>0.03692634152346212</v>
       </c>
       <c r="U9">
-        <v>0.06003395542836706</v>
+        <v>0.06043404877168231</v>
       </c>
       <c r="V9">
-        <v>0.02515707275461623</v>
+        <v>0.02532473082869448</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1549,28 +1549,28 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.00299486181941642</v>
+        <v>0.003014820928716276</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.02064096836195304</v>
+        <v>0.02077852908042098</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.00577953816923465</v>
+        <v>0.005818055617109732</v>
       </c>
       <c r="AD9">
-        <v>0.05914628059222644</v>
+        <v>0.05954045807025455</v>
       </c>
       <c r="AE9">
-        <v>0.06527706095308845</v>
+        <v>0.06571209671530268</v>
       </c>
       <c r="AF9">
-        <v>0.01111612443583154</v>
+        <v>0.01119020730041218</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.004585920310445025</v>
+        <v>0.004616482950805654</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>0.002716166636991094</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1573657228656473</v>
+        <v>0.1573657228656474</v>
       </c>
       <c r="F10">
-        <v>0.1057821027733478</v>
+        <v>0.1057821027733479</v>
       </c>
       <c r="G10">
         <v>0.01850379900145572</v>
@@ -1614,7 +1614,7 @@
         <v>0.02751520946600475</v>
       </c>
       <c r="I10">
-        <v>0.04600923688284864</v>
+        <v>0.04600923688284865</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0.1722208955373259</v>
       </c>
       <c r="M10">
-        <v>0.05614301285459127</v>
+        <v>0.05614301285459129</v>
       </c>
       <c r="N10">
         <v>0.003025330576943677</v>
@@ -1644,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.003099290324815642</v>
+        <v>0.00309929032481564</v>
       </c>
       <c r="T10">
-        <v>0.02805691009604993</v>
+        <v>0.02805691009604994</v>
       </c>
       <c r="U10">
-        <v>0.05215006988203305</v>
+        <v>0.05215006988203307</v>
       </c>
       <c r="V10">
-        <v>0.03728132718516836</v>
+        <v>0.03728132718516838</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.05875949257041023</v>
+        <v>0.05875949257041024</v>
       </c>
       <c r="AE10">
-        <v>0.06492364734926985</v>
+        <v>0.06492364734926986</v>
       </c>
       <c r="AF10">
         <v>0.01241138649615182</v>
@@ -2742,100 +2742,100 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009318514671488571</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1583295790182247</v>
+        <v>0.1500041412562959</v>
       </c>
       <c r="F9">
-        <v>0.2609934054491663</v>
+        <v>0.2533521657091936</v>
       </c>
       <c r="G9">
-        <v>0.2968836930341008</v>
+        <v>0.2894816423505536</v>
       </c>
       <c r="H9">
-        <v>0.3365966944368561</v>
+        <v>0.3294593090979616</v>
       </c>
       <c r="I9">
-        <v>0.3748515097710056</v>
+        <v>0.3679690717674272</v>
       </c>
       <c r="J9">
-        <v>0.3779348418761181</v>
+        <v>0.3710729525877074</v>
       </c>
       <c r="K9">
-        <v>0.3860139714891025</v>
+        <v>0.3792059251626435</v>
       </c>
       <c r="L9">
-        <v>0.5305218123656378</v>
+        <v>0.5246768314374024</v>
       </c>
       <c r="M9">
-        <v>0.5676924183438395</v>
+        <v>0.5620951590909919</v>
       </c>
       <c r="N9">
-        <v>0.5798555131405287</v>
+        <v>0.5743393142347387</v>
       </c>
       <c r="O9">
-        <v>0.7037658651666543</v>
+        <v>0.6990754607076862</v>
       </c>
       <c r="P9">
-        <v>0.7085863402162328</v>
+        <v>0.7039280615761483</v>
       </c>
       <c r="Q9">
-        <v>0.7085863402162328</v>
+        <v>0.7039280615761483</v>
       </c>
       <c r="R9">
-        <v>0.7085863402162328</v>
+        <v>0.7039280615761483</v>
       </c>
       <c r="S9">
-        <v>0.7085863402162328</v>
+        <v>0.7039280615761483</v>
       </c>
       <c r="T9">
-        <v>0.7452682171748213</v>
+        <v>0.7408544030996104</v>
       </c>
       <c r="U9">
-        <v>0.8053021726031884</v>
+        <v>0.8012884518712927</v>
       </c>
       <c r="V9">
-        <v>0.8304592453578046</v>
+        <v>0.8266131826999872</v>
       </c>
       <c r="W9">
-        <v>0.8304592453578046</v>
+        <v>0.8266131826999872</v>
       </c>
       <c r="X9">
-        <v>0.8304592453578046</v>
+        <v>0.8266131826999872</v>
       </c>
       <c r="Y9">
-        <v>0.833454107177221</v>
+        <v>0.8296280036287035</v>
       </c>
       <c r="Z9">
-        <v>0.833454107177221</v>
+        <v>0.8296280036287035</v>
       </c>
       <c r="AA9">
-        <v>0.8540950755391741</v>
+        <v>0.8504065327091245</v>
       </c>
       <c r="AB9">
-        <v>0.8540950755391741</v>
+        <v>0.8504065327091245</v>
       </c>
       <c r="AC9">
-        <v>0.8598746137084087</v>
+        <v>0.8562245883262342</v>
       </c>
       <c r="AD9">
-        <v>0.9190208943006352</v>
+        <v>0.9157650463964887</v>
       </c>
       <c r="AE9">
-        <v>0.9842979552537237</v>
+        <v>0.9814771431117914</v>
       </c>
       <c r="AF9">
-        <v>0.9954140796895552</v>
+        <v>0.9926673504122036</v>
       </c>
       <c r="AG9">
-        <v>0.9954140796895552</v>
+        <v>0.9926673504122036</v>
       </c>
       <c r="AH9">
-        <v>0.9954140796895552</v>
+        <v>0.9926673504122036</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9972838333630092</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -2858,103 +2858,103 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1573657228656473</v>
+        <v>0.1573657228656474</v>
       </c>
       <c r="F10">
         <v>0.2631478256389952</v>
       </c>
       <c r="G10">
-        <v>0.2816516246404509</v>
+        <v>0.281651624640451</v>
       </c>
       <c r="H10">
-        <v>0.3091668341064556</v>
+        <v>0.3091668341064557</v>
       </c>
       <c r="I10">
-        <v>0.3551760709893043</v>
+        <v>0.3551760709893044</v>
       </c>
       <c r="J10">
-        <v>0.3551760709893043</v>
+        <v>0.3551760709893044</v>
       </c>
       <c r="K10">
-        <v>0.3551760709893043</v>
+        <v>0.3551760709893044</v>
       </c>
       <c r="L10">
-        <v>0.5273969665266302</v>
+        <v>0.5273969665266303</v>
       </c>
       <c r="M10">
-        <v>0.5835399793812214</v>
+        <v>0.5835399793812216</v>
       </c>
       <c r="N10">
-        <v>0.586565309958165</v>
+        <v>0.5865653099581652</v>
       </c>
       <c r="O10">
-        <v>0.7420776278967629</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="P10">
-        <v>0.7420776278967629</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="Q10">
-        <v>0.7420776278967629</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="R10">
-        <v>0.7420776278967629</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="S10">
-        <v>0.7451769182215785</v>
+        <v>0.7451769182215787</v>
       </c>
       <c r="T10">
-        <v>0.7732338283176284</v>
+        <v>0.7732338283176287</v>
       </c>
       <c r="U10">
-        <v>0.8253838981996615</v>
+        <v>0.8253838981996617</v>
       </c>
       <c r="V10">
-        <v>0.8626652253848299</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="W10">
-        <v>0.8626652253848299</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="X10">
-        <v>0.8626652253848299</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="Y10">
-        <v>0.8626652253848299</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="Z10">
-        <v>0.8626652253848299</v>
+        <v>0.8626652253848301</v>
       </c>
       <c r="AA10">
-        <v>0.8639054735841678</v>
+        <v>0.863905473584168</v>
       </c>
       <c r="AB10">
-        <v>0.8639054735841678</v>
+        <v>0.863905473584168</v>
       </c>
       <c r="AC10">
-        <v>0.8639054735841678</v>
+        <v>0.863905473584168</v>
       </c>
       <c r="AD10">
-        <v>0.922664966154578</v>
+        <v>0.9226649661545783</v>
       </c>
       <c r="AE10">
-        <v>0.9875886135038479</v>
+        <v>0.9875886135038481</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5305218123656378</v>
+        <v>0.5246768314374024</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5273969665266302</v>
+        <v>0.5273969665266303</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3886,16 +3886,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7037658651666543</v>
+        <v>0.7039280615761483</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>44</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7420776278967629</v>
+        <v>0.7420776278967631</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8053021726031884</v>
+        <v>0.8012884518712927</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8253838981996615</v>
+        <v>0.8253838981996617</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9190208943006352</v>
+        <v>0.9157650463964887</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.922664966154578</v>
+        <v>0.9226649661545783</v>
       </c>
       <c r="G10">
         <v>27</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/44_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/44_225-80R17.xlsx
@@ -162,40 +162,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -205,9 +208,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -698,37 +698,37 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.198441013841881</v>
+        <v>0.298964435782013</v>
       </c>
       <c r="F2">
-        <v>0.004045205674609411</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2182424587483855</v>
+        <v>0.3340527993051541</v>
       </c>
       <c r="H2">
-        <v>0.008135014270561555</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02714665993129684</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001004214392840239</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03971227565587906</v>
+        <v>0.01769548327186663</v>
       </c>
       <c r="M2">
-        <v>0.02173438173318116</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.04022679127191991</v>
+        <v>0.01860721022205722</v>
       </c>
       <c r="O2">
-        <v>0.1069243174595208</v>
+        <v>0.1367959108959153</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -737,61 +737,61 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01313637275078756</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.003464444756851507</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.07405292773869342</v>
+        <v>0.07854747107340754</v>
       </c>
       <c r="V2">
-        <v>0.02292536115362107</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.007392690292621007</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01573314716786425</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.007267968339781421</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01013844062213755</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01877223624850935</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.09259629595310405</v>
+        <v>0.1114065097911814</v>
       </c>
       <c r="AF2">
-        <v>0.03194409060092473</v>
+        <v>0.003930179658405001</v>
       </c>
       <c r="AG2">
-        <v>0.01181262047321262</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.002458030933788058</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.02359683294158397</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -814,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1818436306629555</v>
+        <v>0.261593826354759</v>
       </c>
       <c r="G3">
-        <v>0.1571337313498879</v>
+        <v>0.2192804485634511</v>
       </c>
       <c r="H3">
-        <v>0.02769152360987404</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02055665029256644</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -835,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2321547958941967</v>
+        <v>0.3477469633861435</v>
       </c>
       <c r="N3">
-        <v>0.0140144927178688</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01177533543614157</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.04639017951874923</v>
+        <v>0.02964253514208188</v>
       </c>
       <c r="Q3">
-        <v>0.008496754328454259</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -856,22 +856,22 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001104469306191086</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07121175456806542</v>
+        <v>0.07214714712492334</v>
       </c>
       <c r="V3">
-        <v>0.02084661091113641</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.02052675148585813</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.03657247118158554</v>
+        <v>0.01283063329448553</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -880,34 +880,34 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02213600738771702</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004137126466331657</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.04953936527086527</v>
+        <v>0.03503521945762746</v>
       </c>
       <c r="AF3">
-        <v>0.04176551174162012</v>
+        <v>0.02172322667652831</v>
       </c>
       <c r="AG3">
-        <v>0.01272979880011342</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.006303053188487653</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.007491748814109114</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002187690548491283</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.003390546518733468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -924,40 +924,40 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08938778970935579</v>
+        <v>0.1086845883430517</v>
       </c>
       <c r="F4">
-        <v>0.1108668812906665</v>
+        <v>0.1478528586949175</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03038863642772606</v>
+        <v>0.001096482136698537</v>
       </c>
       <c r="I4">
-        <v>0.04731058117687412</v>
+        <v>0.03195455191608729</v>
       </c>
       <c r="J4">
-        <v>0.00577079410181307</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.009159880387815561</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1148807999525515</v>
+        <v>0.1551724536938005</v>
       </c>
       <c r="M4">
-        <v>0.1884483984738578</v>
+        <v>0.2893268976614076</v>
       </c>
       <c r="N4">
-        <v>0.004621121548547328</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.004630639402352422</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.003242301738904801</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -969,55 +969,55 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1034507460749499</v>
+        <v>0.1343291401523732</v>
       </c>
       <c r="U4">
-        <v>0.08006571263410714</v>
+        <v>0.09168528305390372</v>
       </c>
       <c r="V4">
-        <v>0.007269472941294791</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02195798416557627</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002550084726079002</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01111472553455613</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0170027290668908</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0144216396253273</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001842611305346273</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0409053270478151</v>
+        <v>0.02027422900998796</v>
       </c>
       <c r="AE4">
-        <v>0.03607428611688242</v>
+        <v>0.01146456792411844</v>
       </c>
       <c r="AF4">
-        <v>0.03426155032233501</v>
+        <v>0.008158947413653431</v>
       </c>
       <c r="AG4">
-        <v>0.005109238201729043</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01267411110530805</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002591956921337604</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1034,46 +1034,46 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02559781919149423</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07059060524737459</v>
+        <v>0.08450537415577504</v>
       </c>
       <c r="F5">
-        <v>0.0660677988147827</v>
+        <v>0.07512258177542534</v>
       </c>
       <c r="G5">
-        <v>0.02993957147328983</v>
+        <v>0.0001727334307021044</v>
       </c>
       <c r="H5">
-        <v>0.1682298674484778</v>
+        <v>0.287062998289707</v>
       </c>
       <c r="I5">
-        <v>0.007925348773218885</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00552974469726302</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.00140486655319237</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04607746788490362</v>
+        <v>0.03365162175867085</v>
       </c>
       <c r="M5">
-        <v>0.1747754905985076</v>
+        <v>0.3006422270124238</v>
       </c>
       <c r="N5">
-        <v>0.04436238267960241</v>
+        <v>0.03009359011708042</v>
       </c>
       <c r="O5">
-        <v>0.0005003235272289483</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.01754929960735539</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.05248217792455945</v>
+        <v>0.04693851905442661</v>
       </c>
       <c r="U5">
-        <v>0.03244302994550256</v>
+        <v>0.005366285581935431</v>
       </c>
       <c r="V5">
-        <v>0.03319897575969487</v>
+        <v>0.00693453368874111</v>
       </c>
       <c r="W5">
-        <v>0.00275447711611055</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0004478393619722703</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1103,31 +1103,31 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01556693450945085</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00481281847096828</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01760823143237504</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.04274407467366392</v>
+        <v>0.02673632770634378</v>
       </c>
       <c r="AF5">
-        <v>0.05883799981861448</v>
+        <v>0.06012399540129383</v>
       </c>
       <c r="AG5">
-        <v>0.03694703698708807</v>
+        <v>0.01471007766781778</v>
       </c>
       <c r="AH5">
-        <v>0.0433238660031793</v>
+        <v>0.02793913435965709</v>
       </c>
       <c r="AI5">
-        <v>0.0002819515001290284</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1147,46 +1147,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02488905671086378</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01283792850996231</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.02798130687488803</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.316657661208104</v>
+        <v>0.5363818764151423</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01301174448968005</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07719983692295267</v>
+        <v>0.08985942822594783</v>
       </c>
       <c r="M6">
-        <v>0.141091528272143</v>
+        <v>0.2089997174412036</v>
       </c>
       <c r="N6">
-        <v>0.034080042646624</v>
+        <v>0.009452967659628273</v>
       </c>
       <c r="O6">
-        <v>0.01858584719100423</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02237511556020957</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.06673517534885963</v>
+        <v>0.07034573591088254</v>
       </c>
       <c r="U6">
-        <v>0.03827085704726659</v>
+        <v>0.01726767453616404</v>
       </c>
       <c r="V6">
-        <v>0.03409192425055174</v>
+        <v>0.009475123556559478</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1216,28 +1216,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01339719506846298</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002205999711916952</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01890163529232842</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.04000249417933899</v>
+        <v>0.02049669765911502</v>
       </c>
       <c r="AF6">
-        <v>0.04791300019818386</v>
+        <v>0.03524759805042454</v>
       </c>
       <c r="AG6">
-        <v>0.0214200772889738</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.03033697296841052</v>
+        <v>0.002473180544932336</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1263,43 +1263,43 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.199321918282989</v>
+        <v>0.3297544816843176</v>
       </c>
       <c r="F7">
-        <v>0.02913685155973766</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1273441315566241</v>
+        <v>0.1897277985228483</v>
       </c>
       <c r="H7">
-        <v>0.006544300930505624</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.03080218924774255</v>
+        <v>0.001913632759858685</v>
       </c>
       <c r="J7">
-        <v>0.01323606792975902</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.004058956941452894</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08183221525228253</v>
+        <v>0.1011882229917628</v>
       </c>
       <c r="M7">
-        <v>0.06407547029560899</v>
+        <v>0.06664398075936877</v>
       </c>
       <c r="N7">
-        <v>0.019280749713959</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.08709257149102653</v>
+        <v>0.1114218001807826</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.004630107314844724</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1308,46 +1308,46 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.03162755162479815</v>
+        <v>0.003519305305816919</v>
       </c>
       <c r="U7">
-        <v>0.07025305336661679</v>
+        <v>0.0786619450054243</v>
       </c>
       <c r="V7">
-        <v>0.02714855477116016</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.003773891376090263</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.01471573073691566</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.02324487209297227</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.004589627151405335</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.03386020458042406</v>
+        <v>0.00786274238891959</v>
       </c>
       <c r="AE7">
-        <v>0.0860050351452885</v>
+        <v>0.1093060904009005</v>
       </c>
       <c r="AF7">
-        <v>0.02332508882738519</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.002381681357928265</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.01171917845248279</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.002787893578716701</v>
+        <v>0.002078086678240936</v>
       </c>
       <c r="E8">
-        <v>0.1231138098839325</v>
+        <v>0.1235560627996818</v>
       </c>
       <c r="F8">
-        <v>0.126523676913088</v>
+        <v>0.1269985775817369</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03202356900343944</v>
+        <v>0.03159367891466354</v>
       </c>
       <c r="I8">
-        <v>0.006335054569103576</v>
+        <v>0.005659209941795464</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2807997780385699</v>
+        <v>0.2827517943791219</v>
       </c>
       <c r="M8">
-        <v>0.001238991226318029</v>
+        <v>0.0005143543688866198</v>
       </c>
       <c r="N8">
-        <v>0.004465141963315269</v>
+        <v>0.003771393868166389</v>
       </c>
       <c r="O8">
-        <v>0.12983855468088</v>
+        <v>0.1303451936282743</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.03849992958454963</v>
+        <v>0.03813204737412601</v>
       </c>
       <c r="U8">
-        <v>0.07864949830954746</v>
+        <v>0.0786660279215072</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.09991355218357642</v>
+        <v>0.1001336743610494</v>
       </c>
       <c r="AE8">
-        <v>0.07581055006496287</v>
+        <v>0.07579989818274949</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1489,40 +1489,40 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1500041412562959</v>
+        <v>0.2217544058314836</v>
       </c>
       <c r="F9">
-        <v>0.1033480244528977</v>
+        <v>0.1358211147171587</v>
       </c>
       <c r="G9">
-        <v>0.03612947664136002</v>
+        <v>0.01201503240406063</v>
       </c>
       <c r="H9">
-        <v>0.03997766674740796</v>
+        <v>0.0191027984528244</v>
       </c>
       <c r="I9">
-        <v>0.03850976266946552</v>
+        <v>0.01639914806140252</v>
       </c>
       <c r="J9">
-        <v>0.003103880820280215</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.008132972574936037</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1454709062747589</v>
+        <v>0.213404893955054</v>
       </c>
       <c r="M9">
-        <v>0.03741832765358959</v>
+        <v>0.01438889497182684</v>
       </c>
       <c r="N9">
-        <v>0.01224415514374681</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1247361464729475</v>
+        <v>0.175214699993072</v>
       </c>
       <c r="P9">
-        <v>0.004852600868462021</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.03692634152346212</v>
+        <v>0.01348273324553904</v>
       </c>
       <c r="U9">
-        <v>0.06043404877168231</v>
+        <v>0.05678026396169364</v>
       </c>
       <c r="V9">
-        <v>0.02532473082869448</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1549,28 +1549,28 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.003014820928716276</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.02077852908042098</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.005818055617109732</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.05954045807025455</v>
+        <v>0.05513440924544233</v>
       </c>
       <c r="AE9">
-        <v>0.06571209671530268</v>
+        <v>0.06650160516044207</v>
       </c>
       <c r="AF9">
-        <v>0.01119020730041218</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.004616482950805654</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.002716166636991094</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1573657228656474</v>
+        <v>0.2004816350486084</v>
       </c>
       <c r="F10">
-        <v>0.1057821027733479</v>
+        <v>0.1222279942238251</v>
       </c>
       <c r="G10">
-        <v>0.01850379900145572</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.02751520946600475</v>
+        <v>0.003495161080562131</v>
       </c>
       <c r="I10">
-        <v>0.04600923688284865</v>
+        <v>0.03155106286279167</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1722208955373259</v>
+        <v>0.2230173032424971</v>
       </c>
       <c r="M10">
-        <v>0.05614301285459129</v>
+        <v>0.04692425426875795</v>
       </c>
       <c r="N10">
-        <v>0.003025330576943677</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1555123179385979</v>
+        <v>0.1976699734551666</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1644,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.00309929032481564</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.02805691009604994</v>
+        <v>0.004316934474175563</v>
       </c>
       <c r="U10">
-        <v>0.05215006988203307</v>
+        <v>0.04086685999031609</v>
       </c>
       <c r="V10">
-        <v>0.03728132718516838</v>
+        <v>0.01831060572908668</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.001240248199337852</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1677,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.05875949257041024</v>
+        <v>0.05089351938703902</v>
       </c>
       <c r="AE10">
-        <v>0.06492364734926986</v>
+        <v>0.06024469623717368</v>
       </c>
       <c r="AF10">
-        <v>0.01241138649615182</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1712,40 +1712,40 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1805608595679991</v>
+        <v>0.2060186237339389</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.130610774916193</v>
+        <v>0.1419564445781947</v>
       </c>
       <c r="G11">
-        <v>0.01542694759171467</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.06292122745800829</v>
+        <v>0.05514297976696564</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.610214565772996E-05</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2473917998254172</v>
+        <v>0.291730904258828</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1194276223248728</v>
+        <v>0.1276137837033392</v>
       </c>
       <c r="O11">
-        <v>0.01317978580464898</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.001884398349822075</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.03250302478191167</v>
+        <v>0.01613090675416481</v>
       </c>
       <c r="U11">
-        <v>0.06401911929448281</v>
+        <v>0.0565510523260442</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01043023257750334</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.08358223941473619</v>
+        <v>0.08164122213707178</v>
       </c>
       <c r="AE11">
-        <v>0.03802586594703228</v>
+        <v>0.02321408274145282</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1954,103 +1954,103 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.198441013841881</v>
+        <v>0.298964435782013</v>
       </c>
       <c r="F2">
-        <v>0.2024862195164904</v>
+        <v>0.298964435782013</v>
       </c>
       <c r="G2">
-        <v>0.4207286782648759</v>
+        <v>0.6330172350871671</v>
       </c>
       <c r="H2">
-        <v>0.4288636925354375</v>
+        <v>0.6330172350871671</v>
       </c>
       <c r="I2">
-        <v>0.4560103524667343</v>
+        <v>0.6330172350871671</v>
       </c>
       <c r="J2">
-        <v>0.4561107739060183</v>
+        <v>0.6330172350871671</v>
       </c>
       <c r="K2">
-        <v>0.4561107739060183</v>
+        <v>0.6330172350871671</v>
       </c>
       <c r="L2">
-        <v>0.4958230495618974</v>
+        <v>0.6507127183590338</v>
       </c>
       <c r="M2">
-        <v>0.5175574312950786</v>
+        <v>0.6507127183590338</v>
       </c>
       <c r="N2">
-        <v>0.5577842225669984</v>
+        <v>0.669319928581091</v>
       </c>
       <c r="O2">
-        <v>0.6647085400265192</v>
+        <v>0.8061158394770063</v>
       </c>
       <c r="P2">
-        <v>0.6647085400265192</v>
+        <v>0.8061158394770063</v>
       </c>
       <c r="Q2">
-        <v>0.6647085400265192</v>
+        <v>0.8061158394770063</v>
       </c>
       <c r="R2">
-        <v>0.6778449127773069</v>
+        <v>0.8061158394770063</v>
       </c>
       <c r="S2">
-        <v>0.6778449127773069</v>
+        <v>0.8061158394770063</v>
       </c>
       <c r="T2">
-        <v>0.6813093575341583</v>
+        <v>0.8061158394770063</v>
       </c>
       <c r="U2">
-        <v>0.7553622852728518</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="V2">
-        <v>0.7782876464264729</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="W2">
-        <v>0.7856803367190939</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="X2">
-        <v>0.7856803367190939</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="Y2">
-        <v>0.8014134838869581</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="Z2">
-        <v>0.8014134838869581</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="AA2">
-        <v>0.8086814522267395</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="AB2">
-        <v>0.818819892848877</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="AC2">
-        <v>0.818819892848877</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="AD2">
-        <v>0.8375921290973863</v>
+        <v>0.8846633105504138</v>
       </c>
       <c r="AE2">
-        <v>0.9301884250504904</v>
+        <v>0.9960698203415952</v>
       </c>
       <c r="AF2">
-        <v>0.9621325156514151</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9739451361246277</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9764031670584158</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9764031670584158</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2070,97 +2070,97 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1818436306629555</v>
+        <v>0.261593826354759</v>
       </c>
       <c r="G3">
-        <v>0.3389773620128434</v>
+        <v>0.4808742749182102</v>
       </c>
       <c r="H3">
-        <v>0.3666688856227174</v>
+        <v>0.4808742749182102</v>
       </c>
       <c r="I3">
-        <v>0.3666688856227174</v>
+        <v>0.4808742749182102</v>
       </c>
       <c r="J3">
-        <v>0.3872255359152839</v>
+        <v>0.4808742749182102</v>
       </c>
       <c r="K3">
-        <v>0.3872255359152839</v>
+        <v>0.4808742749182102</v>
       </c>
       <c r="L3">
-        <v>0.3872255359152839</v>
+        <v>0.4808742749182102</v>
       </c>
       <c r="M3">
-        <v>0.6193803318094806</v>
+        <v>0.8286212383043536</v>
       </c>
       <c r="N3">
-        <v>0.6333948245273494</v>
+        <v>0.8286212383043536</v>
       </c>
       <c r="O3">
-        <v>0.6451701599634909</v>
+        <v>0.8286212383043536</v>
       </c>
       <c r="P3">
-        <v>0.6915603394822402</v>
+        <v>0.8582637734464356</v>
       </c>
       <c r="Q3">
-        <v>0.7000570938106945</v>
+        <v>0.8582637734464356</v>
       </c>
       <c r="R3">
-        <v>0.7000570938106945</v>
+        <v>0.8582637734464356</v>
       </c>
       <c r="S3">
-        <v>0.7000570938106945</v>
+        <v>0.8582637734464356</v>
       </c>
       <c r="T3">
-        <v>0.7011615631168856</v>
+        <v>0.8582637734464356</v>
       </c>
       <c r="U3">
-        <v>0.772373317684951</v>
+        <v>0.9304109205713589</v>
       </c>
       <c r="V3">
-        <v>0.7932199285960874</v>
+        <v>0.9304109205713589</v>
       </c>
       <c r="W3">
-        <v>0.8137466800819455</v>
+        <v>0.9304109205713589</v>
       </c>
       <c r="X3">
-        <v>0.8137466800819455</v>
+        <v>0.9304109205713589</v>
       </c>
       <c r="Y3">
-        <v>0.8503191512635311</v>
+        <v>0.9432415538658444</v>
       </c>
       <c r="Z3">
-        <v>0.8503191512635311</v>
+        <v>0.9432415538658444</v>
       </c>
       <c r="AA3">
-        <v>0.8503191512635311</v>
+        <v>0.9432415538658444</v>
       </c>
       <c r="AB3">
-        <v>0.8724551586512481</v>
+        <v>0.9432415538658444</v>
       </c>
       <c r="AC3">
-        <v>0.8765922851175798</v>
+        <v>0.9432415538658444</v>
       </c>
       <c r="AD3">
-        <v>0.8765922851175798</v>
+        <v>0.9432415538658444</v>
       </c>
       <c r="AE3">
-        <v>0.926131650388445</v>
+        <v>0.9782767733234718</v>
       </c>
       <c r="AF3">
-        <v>0.9678971621300652</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9806269609301785</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9869300141186662</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9944217629327753</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9966094534812666</v>
+        <v>1</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -2180,103 +2180,103 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08938778970935579</v>
+        <v>0.1086845883430517</v>
       </c>
       <c r="F4">
-        <v>0.2002546710000223</v>
+        <v>0.2565374470379692</v>
       </c>
       <c r="G4">
-        <v>0.2002546710000223</v>
+        <v>0.2565374470379692</v>
       </c>
       <c r="H4">
-        <v>0.2306433074277484</v>
+        <v>0.2576339291746678</v>
       </c>
       <c r="I4">
-        <v>0.2779538886046225</v>
+        <v>0.2895884810907551</v>
       </c>
       <c r="J4">
-        <v>0.2837246827064356</v>
+        <v>0.2895884810907551</v>
       </c>
       <c r="K4">
-        <v>0.2928845630942511</v>
+        <v>0.2895884810907551</v>
       </c>
       <c r="L4">
-        <v>0.4077653630468027</v>
+        <v>0.4447609347845556</v>
       </c>
       <c r="M4">
-        <v>0.5962137615206605</v>
+        <v>0.7340878324459632</v>
       </c>
       <c r="N4">
-        <v>0.6008348830692078</v>
+        <v>0.7340878324459632</v>
       </c>
       <c r="O4">
-        <v>0.6054655224715603</v>
+        <v>0.7340878324459632</v>
       </c>
       <c r="P4">
-        <v>0.6087078242104651</v>
+        <v>0.7340878324459632</v>
       </c>
       <c r="Q4">
-        <v>0.6087078242104651</v>
+        <v>0.7340878324459632</v>
       </c>
       <c r="R4">
-        <v>0.6087078242104651</v>
+        <v>0.7340878324459632</v>
       </c>
       <c r="S4">
-        <v>0.6087078242104651</v>
+        <v>0.7340878324459632</v>
       </c>
       <c r="T4">
-        <v>0.7121585702854151</v>
+        <v>0.8684169725983364</v>
       </c>
       <c r="U4">
-        <v>0.7922242829195222</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="V4">
-        <v>0.7994937558608169</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="W4">
-        <v>0.7994937558608169</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="X4">
-        <v>0.8214517400263932</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="Y4">
-        <v>0.8240018247524722</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="Z4">
-        <v>0.8351165502870284</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="AA4">
-        <v>0.8521192793539192</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="AB4">
-        <v>0.8665409189792465</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="AC4">
-        <v>0.8683835302845927</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="AD4">
-        <v>0.9092888573324078</v>
+        <v>0.980376484662228</v>
       </c>
       <c r="AE4">
-        <v>0.9453631434492903</v>
+        <v>0.9918410525863465</v>
       </c>
       <c r="AF4">
-        <v>0.9796246937716253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9847339319733543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.9974080430786624</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.9974080430786624</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2290,97 +2290,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02559781919149423</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09618842443886882</v>
+        <v>0.08450537415577504</v>
       </c>
       <c r="F5">
-        <v>0.1622562232536515</v>
+        <v>0.1596279559312004</v>
       </c>
       <c r="G5">
-        <v>0.1921957947269413</v>
+        <v>0.1598006893619025</v>
       </c>
       <c r="H5">
-        <v>0.3604256621754192</v>
+        <v>0.4468636876516094</v>
       </c>
       <c r="I5">
-        <v>0.368351010948638</v>
+        <v>0.4468636876516094</v>
       </c>
       <c r="J5">
-        <v>0.3738807556459011</v>
+        <v>0.4468636876516094</v>
       </c>
       <c r="K5">
-        <v>0.3752856221990934</v>
+        <v>0.4468636876516094</v>
       </c>
       <c r="L5">
-        <v>0.4213630900839971</v>
+        <v>0.4805153094102803</v>
       </c>
       <c r="M5">
-        <v>0.5961385806825047</v>
+        <v>0.7811575364227041</v>
       </c>
       <c r="N5">
-        <v>0.6405009633621072</v>
+        <v>0.8112511265397846</v>
       </c>
       <c r="O5">
-        <v>0.6410012868893361</v>
+        <v>0.8112511265397846</v>
       </c>
       <c r="P5">
-        <v>0.6410012868893361</v>
+        <v>0.8112511265397846</v>
       </c>
       <c r="Q5">
-        <v>0.6585505864966915</v>
+        <v>0.8112511265397846</v>
       </c>
       <c r="R5">
-        <v>0.6585505864966915</v>
+        <v>0.8112511265397846</v>
       </c>
       <c r="S5">
-        <v>0.6585505864966915</v>
+        <v>0.8112511265397846</v>
       </c>
       <c r="T5">
-        <v>0.711032764421251</v>
+        <v>0.8581896455942112</v>
       </c>
       <c r="U5">
-        <v>0.7434757943667535</v>
+        <v>0.8635559311761466</v>
       </c>
       <c r="V5">
-        <v>0.7766747701264484</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="W5">
-        <v>0.7794292472425589</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="X5">
-        <v>0.7798770866045311</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="Y5">
-        <v>0.7798770866045311</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="Z5">
-        <v>0.7798770866045311</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="AA5">
-        <v>0.795444021113982</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="AB5">
-        <v>0.8002568395849503</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="AC5">
-        <v>0.8002568395849503</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="AD5">
-        <v>0.8178650710173253</v>
+        <v>0.8704904648648877</v>
       </c>
       <c r="AE5">
-        <v>0.8606091456909892</v>
+        <v>0.8972267925712315</v>
       </c>
       <c r="AF5">
-        <v>0.9194471455096037</v>
+        <v>0.9573507879725254</v>
       </c>
       <c r="AG5">
-        <v>0.9563941824966918</v>
+        <v>0.9720608656403431</v>
       </c>
       <c r="AH5">
-        <v>0.9997180484998711</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2403,94 +2403,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02488905671086378</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03772698522082608</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03772698522082608</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0657082920957141</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.3823659533038181</v>
+        <v>0.5363818764151423</v>
       </c>
       <c r="I6">
-        <v>0.3823659533038181</v>
+        <v>0.5363818764151423</v>
       </c>
       <c r="J6">
-        <v>0.3953776977934982</v>
+        <v>0.5363818764151423</v>
       </c>
       <c r="K6">
-        <v>0.3953776977934982</v>
+        <v>0.5363818764151423</v>
       </c>
       <c r="L6">
-        <v>0.4725775347164509</v>
+        <v>0.6262413046410902</v>
       </c>
       <c r="M6">
-        <v>0.6136690629885938</v>
+        <v>0.8352410220822938</v>
       </c>
       <c r="N6">
-        <v>0.6477491056352178</v>
+        <v>0.844693989741922</v>
       </c>
       <c r="O6">
-        <v>0.666334952826222</v>
+        <v>0.844693989741922</v>
       </c>
       <c r="P6">
-        <v>0.666334952826222</v>
+        <v>0.844693989741922</v>
       </c>
       <c r="Q6">
-        <v>0.6887100683864316</v>
+        <v>0.844693989741922</v>
       </c>
       <c r="R6">
-        <v>0.6887100683864316</v>
+        <v>0.844693989741922</v>
       </c>
       <c r="S6">
-        <v>0.6887100683864316</v>
+        <v>0.844693989741922</v>
       </c>
       <c r="T6">
-        <v>0.7554452437352912</v>
+        <v>0.9150397256528046</v>
       </c>
       <c r="U6">
-        <v>0.7937161007825578</v>
+        <v>0.9323074001889686</v>
       </c>
       <c r="V6">
-        <v>0.8278080250331096</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="W6">
-        <v>0.8278080250331096</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="X6">
-        <v>0.8278080250331096</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="Y6">
-        <v>0.8278080250331096</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="Z6">
-        <v>0.8278080250331096</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="AA6">
-        <v>0.8412052201015725</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="AB6">
-        <v>0.8414258200727642</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="AC6">
-        <v>0.8414258200727642</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="AD6">
-        <v>0.8603274553650927</v>
+        <v>0.9417825237455281</v>
       </c>
       <c r="AE6">
-        <v>0.9003299495444317</v>
+        <v>0.9622792214046431</v>
       </c>
       <c r="AF6">
-        <v>0.9482429497426156</v>
+        <v>0.9975268194550676</v>
       </c>
       <c r="AG6">
-        <v>0.9696630270315894</v>
+        <v>0.9975268194550676</v>
       </c>
       <c r="AH6">
         <v>0.9999999999999999</v>
@@ -2519,97 +2519,97 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.199321918282989</v>
+        <v>0.3297544816843176</v>
       </c>
       <c r="F7">
-        <v>0.2284587698427267</v>
+        <v>0.3297544816843176</v>
       </c>
       <c r="G7">
-        <v>0.3558029013993508</v>
+        <v>0.5194822802071659</v>
       </c>
       <c r="H7">
-        <v>0.3623472023298564</v>
+        <v>0.5194822802071659</v>
       </c>
       <c r="I7">
-        <v>0.3931493915775989</v>
+        <v>0.5213959129670246</v>
       </c>
       <c r="J7">
-        <v>0.4063854595073579</v>
+        <v>0.5213959129670246</v>
       </c>
       <c r="K7">
-        <v>0.4104444164488109</v>
+        <v>0.5213959129670246</v>
       </c>
       <c r="L7">
-        <v>0.4922766317010934</v>
+        <v>0.6225841359587874</v>
       </c>
       <c r="M7">
-        <v>0.5563521019967024</v>
+        <v>0.6892281167181561</v>
       </c>
       <c r="N7">
-        <v>0.5756328517106614</v>
+        <v>0.6892281167181561</v>
       </c>
       <c r="O7">
-        <v>0.6627254232016879</v>
+        <v>0.8006499168989387</v>
       </c>
       <c r="P7">
-        <v>0.6627254232016879</v>
+        <v>0.8006499168989387</v>
       </c>
       <c r="Q7">
-        <v>0.6673555305165326</v>
+        <v>0.8006499168989387</v>
       </c>
       <c r="R7">
-        <v>0.6673555305165326</v>
+        <v>0.8006499168989387</v>
       </c>
       <c r="S7">
-        <v>0.6673555305165326</v>
+        <v>0.8006499168989387</v>
       </c>
       <c r="T7">
-        <v>0.6989830821413308</v>
+        <v>0.8041692222047556</v>
       </c>
       <c r="U7">
-        <v>0.7692361355079476</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="V7">
-        <v>0.7963846902791077</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="W7">
-        <v>0.800158581655198</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="X7">
-        <v>0.800158581655198</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="Y7">
-        <v>0.8148743123921137</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="Z7">
-        <v>0.8148743123921137</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="AA7">
-        <v>0.8381191844850859</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="AB7">
-        <v>0.8427088116364913</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="AC7">
-        <v>0.8427088116364913</v>
+        <v>0.88283116721018</v>
       </c>
       <c r="AD7">
-        <v>0.8765690162169153</v>
+        <v>0.8906939095990996</v>
       </c>
       <c r="AE7">
-        <v>0.9625740513622038</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9858991401895889</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9882808215475172</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9882808215475172</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9882808215475172</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2629,106 +2629,106 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.002787893578716701</v>
+        <v>0.002078086678240936</v>
       </c>
       <c r="E8">
-        <v>0.1259017034626492</v>
+        <v>0.1256341494779228</v>
       </c>
       <c r="F8">
-        <v>0.2524253803757373</v>
+        <v>0.2526327270596597</v>
       </c>
       <c r="G8">
-        <v>0.2524253803757373</v>
+        <v>0.2526327270596597</v>
       </c>
       <c r="H8">
-        <v>0.2844489493791767</v>
+        <v>0.2842264059743232</v>
       </c>
       <c r="I8">
-        <v>0.2907840039482803</v>
+        <v>0.2898856159161187</v>
       </c>
       <c r="J8">
-        <v>0.2907840039482803</v>
+        <v>0.2898856159161187</v>
       </c>
       <c r="K8">
-        <v>0.2907840039482803</v>
+        <v>0.2898856159161187</v>
       </c>
       <c r="L8">
-        <v>0.5715837819868501</v>
+        <v>0.5726374102952405</v>
       </c>
       <c r="M8">
-        <v>0.5728227732131681</v>
+        <v>0.5731517646641271</v>
       </c>
       <c r="N8">
-        <v>0.5772879151764834</v>
+        <v>0.5769231585322935</v>
       </c>
       <c r="O8">
-        <v>0.7071264698573634</v>
+        <v>0.7072683521605677</v>
       </c>
       <c r="P8">
-        <v>0.7071264698573634</v>
+        <v>0.7072683521605677</v>
       </c>
       <c r="Q8">
-        <v>0.7071264698573634</v>
+        <v>0.7072683521605677</v>
       </c>
       <c r="R8">
-        <v>0.7071264698573634</v>
+        <v>0.7072683521605677</v>
       </c>
       <c r="S8">
-        <v>0.7071264698573634</v>
+        <v>0.7072683521605677</v>
       </c>
       <c r="T8">
-        <v>0.745626399441913</v>
+        <v>0.7454003995346937</v>
       </c>
       <c r="U8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="V8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="W8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="X8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="Y8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="Z8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="AA8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="AB8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="AC8">
-        <v>0.8242758977514605</v>
+        <v>0.824066427456201</v>
       </c>
       <c r="AD8">
-        <v>0.9241894499350369</v>
+        <v>0.9242001018172504</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2745,97 +2745,97 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1500041412562959</v>
+        <v>0.2217544058314836</v>
       </c>
       <c r="F9">
-        <v>0.2533521657091936</v>
+        <v>0.3575755205486423</v>
       </c>
       <c r="G9">
-        <v>0.2894816423505536</v>
+        <v>0.3695905529527029</v>
       </c>
       <c r="H9">
-        <v>0.3294593090979616</v>
+        <v>0.3886933514055274</v>
       </c>
       <c r="I9">
-        <v>0.3679690717674272</v>
+        <v>0.4050924994669299</v>
       </c>
       <c r="J9">
-        <v>0.3710729525877074</v>
+        <v>0.4050924994669299</v>
       </c>
       <c r="K9">
-        <v>0.3792059251626435</v>
+        <v>0.4050924994669299</v>
       </c>
       <c r="L9">
-        <v>0.5246768314374024</v>
+        <v>0.618497393421984</v>
       </c>
       <c r="M9">
-        <v>0.5620951590909919</v>
+        <v>0.6328862883938108</v>
       </c>
       <c r="N9">
-        <v>0.5743393142347387</v>
+        <v>0.6328862883938108</v>
       </c>
       <c r="O9">
-        <v>0.6990754607076862</v>
+        <v>0.8081009883868828</v>
       </c>
       <c r="P9">
-        <v>0.7039280615761483</v>
+        <v>0.8081009883868828</v>
       </c>
       <c r="Q9">
-        <v>0.7039280615761483</v>
+        <v>0.8081009883868828</v>
       </c>
       <c r="R9">
-        <v>0.7039280615761483</v>
+        <v>0.8081009883868828</v>
       </c>
       <c r="S9">
-        <v>0.7039280615761483</v>
+        <v>0.8081009883868828</v>
       </c>
       <c r="T9">
-        <v>0.7408544030996104</v>
+        <v>0.8215837216324219</v>
       </c>
       <c r="U9">
-        <v>0.8012884518712927</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="V9">
-        <v>0.8266131826999872</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="W9">
-        <v>0.8266131826999872</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="X9">
-        <v>0.8266131826999872</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="Y9">
-        <v>0.8296280036287035</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="Z9">
-        <v>0.8296280036287035</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="AA9">
-        <v>0.8504065327091245</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="AB9">
-        <v>0.8504065327091245</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="AC9">
-        <v>0.8562245883262342</v>
+        <v>0.8783639855941155</v>
       </c>
       <c r="AD9">
-        <v>0.9157650463964887</v>
+        <v>0.9334983948395579</v>
       </c>
       <c r="AE9">
-        <v>0.9814771431117914</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9926673504122036</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9926673504122036</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9926673504122036</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9972838333630092</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -2858,85 +2858,85 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1573657228656474</v>
+        <v>0.2004816350486084</v>
       </c>
       <c r="F10">
-        <v>0.2631478256389952</v>
+        <v>0.3227096292724335</v>
       </c>
       <c r="G10">
-        <v>0.281651624640451</v>
+        <v>0.3227096292724335</v>
       </c>
       <c r="H10">
-        <v>0.3091668341064557</v>
+        <v>0.3262047903529956</v>
       </c>
       <c r="I10">
-        <v>0.3551760709893044</v>
+        <v>0.3577558532157873</v>
       </c>
       <c r="J10">
-        <v>0.3551760709893044</v>
+        <v>0.3577558532157873</v>
       </c>
       <c r="K10">
-        <v>0.3551760709893044</v>
+        <v>0.3577558532157873</v>
       </c>
       <c r="L10">
-        <v>0.5273969665266303</v>
+        <v>0.5807731564582843</v>
       </c>
       <c r="M10">
-        <v>0.5835399793812216</v>
+        <v>0.6276974107270422</v>
       </c>
       <c r="N10">
-        <v>0.5865653099581652</v>
+        <v>0.6276974107270422</v>
       </c>
       <c r="O10">
-        <v>0.7420776278967631</v>
+        <v>0.8253673841822088</v>
       </c>
       <c r="P10">
-        <v>0.7420776278967631</v>
+        <v>0.8253673841822088</v>
       </c>
       <c r="Q10">
-        <v>0.7420776278967631</v>
+        <v>0.8253673841822088</v>
       </c>
       <c r="R10">
-        <v>0.7420776278967631</v>
+        <v>0.8253673841822088</v>
       </c>
       <c r="S10">
-        <v>0.7451769182215787</v>
+        <v>0.8253673841822088</v>
       </c>
       <c r="T10">
-        <v>0.7732338283176287</v>
+        <v>0.8296843186563844</v>
       </c>
       <c r="U10">
-        <v>0.8253838981996617</v>
+        <v>0.8705511786467005</v>
       </c>
       <c r="V10">
-        <v>0.8626652253848301</v>
+        <v>0.8888617843757872</v>
       </c>
       <c r="W10">
-        <v>0.8626652253848301</v>
+        <v>0.8888617843757872</v>
       </c>
       <c r="X10">
-        <v>0.8626652253848301</v>
+        <v>0.8888617843757872</v>
       </c>
       <c r="Y10">
-        <v>0.8626652253848301</v>
+        <v>0.8888617843757872</v>
       </c>
       <c r="Z10">
-        <v>0.8626652253848301</v>
+        <v>0.8888617843757872</v>
       </c>
       <c r="AA10">
-        <v>0.863905473584168</v>
+        <v>0.8888617843757872</v>
       </c>
       <c r="AB10">
-        <v>0.863905473584168</v>
+        <v>0.8888617843757872</v>
       </c>
       <c r="AC10">
-        <v>0.863905473584168</v>
+        <v>0.8888617843757872</v>
       </c>
       <c r="AD10">
-        <v>0.9226649661545783</v>
+        <v>0.9397553037628262</v>
       </c>
       <c r="AE10">
-        <v>0.9875886135038481</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
         <v>0.9999999999999999</v>
@@ -2968,85 +2968,85 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1805608595679991</v>
+        <v>0.2060186237339389</v>
       </c>
       <c r="E11">
-        <v>0.1805608595679991</v>
+        <v>0.2060186237339389</v>
       </c>
       <c r="F11">
-        <v>0.3111716344841921</v>
+        <v>0.3479750683121337</v>
       </c>
       <c r="G11">
-        <v>0.3265985820759068</v>
+        <v>0.3479750683121337</v>
       </c>
       <c r="H11">
-        <v>0.3895198095339151</v>
+        <v>0.4031180480790993</v>
       </c>
       <c r="I11">
-        <v>0.3895198095339151</v>
+        <v>0.4031180480790993</v>
       </c>
       <c r="J11">
-        <v>0.3895559116795728</v>
+        <v>0.4031180480790993</v>
       </c>
       <c r="K11">
-        <v>0.3895559116795728</v>
+        <v>0.4031180480790993</v>
       </c>
       <c r="L11">
-        <v>0.63694771150499</v>
+        <v>0.6948489523379273</v>
       </c>
       <c r="M11">
-        <v>0.63694771150499</v>
+        <v>0.6948489523379273</v>
       </c>
       <c r="N11">
-        <v>0.7563753338298628</v>
+        <v>0.8224627360412665</v>
       </c>
       <c r="O11">
-        <v>0.7695551196345117</v>
+        <v>0.8224627360412665</v>
       </c>
       <c r="P11">
-        <v>0.7695551196345117</v>
+        <v>0.8224627360412665</v>
       </c>
       <c r="Q11">
-        <v>0.7695551196345117</v>
+        <v>0.8224627360412665</v>
       </c>
       <c r="R11">
-        <v>0.7695551196345117</v>
+        <v>0.8224627360412665</v>
       </c>
       <c r="S11">
-        <v>0.7714395179843339</v>
+        <v>0.8224627360412665</v>
       </c>
       <c r="T11">
-        <v>0.8039425427662455</v>
+        <v>0.8385936427954314</v>
       </c>
       <c r="U11">
-        <v>0.8679616620607283</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="V11">
-        <v>0.8679616620607283</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="W11">
-        <v>0.8679616620607283</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="X11">
-        <v>0.8679616620607283</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="Y11">
-        <v>0.8679616620607283</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="Z11">
-        <v>0.8679616620607283</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="AA11">
-        <v>0.8679616620607283</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="AB11">
-        <v>0.8679616620607283</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="AC11">
-        <v>0.8783918946382316</v>
+        <v>0.8951446951214755</v>
       </c>
       <c r="AD11">
-        <v>0.9619741340529678</v>
+        <v>0.9767859172585474</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -3129,34 +3129,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6330172350871671</v>
       </c>
       <c r="F2">
-        <v>0.5175574312950786</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>44</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3170,34 +3170,34 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.8286212383043536</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6193803318094806</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>44</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3211,34 +3211,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.7340878324459632</v>
+      </c>
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5962137615206605</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>44</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3252,34 +3252,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.7811575364227041</v>
+      </c>
+      <c r="F5">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5961385806825047</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>44</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3293,34 +3293,34 @@
         <v>41</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
       <c r="E6">
-        <v>0.03772698522082608</v>
+        <v>0.5363818764151423</v>
       </c>
       <c r="F6">
-        <v>0.6136690629885938</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>44</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3334,34 +3334,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5194822802071659</v>
       </c>
       <c r="F7">
-        <v>0.5563521019967024</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>44</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3375,34 +3375,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5726374102952405</v>
+      </c>
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5715837819868501</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>44</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3416,34 +3416,34 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.618497393421984</v>
+      </c>
+      <c r="F9">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5246768314374024</v>
-      </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
         <v>9</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>44</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3457,34 +3457,34 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5807731564582843</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5273969665266303</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>44</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3498,34 +3498,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.6948489523379273</v>
+      </c>
+      <c r="F11">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.63694771150499</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>44</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -3593,34 +3593,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8061158394770063</v>
       </c>
       <c r="F2">
-        <v>0.7553622852728518</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>44</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3634,34 +3634,34 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8286212383043536</v>
       </c>
       <c r="F3">
-        <v>0.7000570938106945</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>44</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3675,34 +3675,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7340878324459632</v>
       </c>
       <c r="F4">
-        <v>0.7121585702854151</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>44</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3716,34 +3716,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7811575364227041</v>
       </c>
       <c r="F5">
-        <v>0.711032764421251</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>44</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3757,34 +3757,34 @@
         <v>41</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0.03772698522082608</v>
+        <v>0.8352410220822938</v>
       </c>
       <c r="F6">
-        <v>0.7554452437352912</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>44</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3798,34 +3798,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8006499168989387</v>
       </c>
       <c r="F7">
-        <v>0.7692361355079476</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>44</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3839,34 +3839,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.7072683521605677</v>
+      </c>
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7071264698573634</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>44</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3880,34 +3880,34 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8081009883868828</v>
       </c>
       <c r="F9">
-        <v>0.7039280615761483</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>44</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3921,34 +3921,34 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>0.8253673841822088</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7420776278967631</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>44</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3962,34 +3962,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.8224627360412665</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7563753338298628</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>44</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4057,34 +4057,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8061158394770063</v>
       </c>
       <c r="F2">
-        <v>0.8014134838869581</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>44</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4098,34 +4098,34 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8286212383043536</v>
       </c>
       <c r="F3">
-        <v>0.8137466800819455</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>44</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4139,34 +4139,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8684169725983364</v>
       </c>
       <c r="F4">
-        <v>0.8214517400263932</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>44</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4180,34 +4180,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8112511265397846</v>
       </c>
       <c r="F5">
-        <v>0.8002568395849503</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>44</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4221,34 +4221,34 @@
         <v>41</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>0.03772698522082608</v>
+        <v>0.8352410220822938</v>
       </c>
       <c r="F6">
-        <v>0.8278080250331096</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>44</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4262,34 +4262,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8006499168989387</v>
       </c>
       <c r="F7">
-        <v>0.800158581655198</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>44</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4303,34 +4303,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.824066427456201</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8242758977514605</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>18</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>44</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4344,34 +4344,34 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8081009883868828</v>
       </c>
       <c r="F9">
-        <v>0.8012884518712927</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>44</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4385,34 +4385,34 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8253673841822088</v>
       </c>
       <c r="F10">
-        <v>0.8253838981996617</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>44</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4426,34 +4426,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8224627360412665</v>
       </c>
       <c r="F11">
-        <v>0.8039425427662455</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>44</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4521,34 +4521,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.9960698203415952</v>
+      </c>
+      <c r="F2">
         <v>30</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9301884250504904</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>44</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4562,34 +4562,34 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9304109205713589</v>
       </c>
       <c r="F3">
-        <v>0.926131650388445</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>44</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4603,34 +4603,34 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9601022556522401</v>
       </c>
       <c r="F4">
-        <v>0.9092888573324078</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>44</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4644,34 +4644,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>0.9573507879725254</v>
+      </c>
+      <c r="F5">
         <v>31</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9194471455096037</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>29</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>44</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4685,34 +4685,34 @@
         <v>41</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
       <c r="E6">
-        <v>0.03772698522082608</v>
+        <v>0.9150397256528046</v>
       </c>
       <c r="F6">
-        <v>0.9003299495444317</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>44</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4726,34 +4726,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9625740513622038</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>28</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>44</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4767,34 +4767,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.9242001018172504</v>
+      </c>
+      <c r="F8">
         <v>29</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9241894499350369</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>27</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>44</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4808,34 +4808,34 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.9334983948395579</v>
+      </c>
+      <c r="F9">
         <v>29</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9157650463964887</v>
-      </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
         <v>27</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>44</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4849,34 +4849,34 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.9397553037628262</v>
+      </c>
+      <c r="F10">
         <v>29</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9226649661545783</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>27</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>44</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4890,34 +4890,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9767859172585474</v>
+      </c>
+      <c r="F11">
         <v>29</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9619741340529678</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>28</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>44</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
